--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>567175.9208177805</v>
+        <v>563010.8219345467</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33932838.81031688</v>
+        <v>33932838.81031689</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6534713.651117922</v>
+        <v>6534713.651117925</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4674346.355011689</v>
+        <v>4674346.355011688</v>
       </c>
     </row>
     <row r="11">
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.066753047649844</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="D5" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3.262548922260277</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="F5" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.262548922260277</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="T6" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>3.262548922260277</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="X7" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1214,22 +1214,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="F9" t="n">
-        <v>37.06736141641883</v>
       </c>
       <c r="G9" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="H9" t="n">
-        <v>40.6378963153706</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1293,19 +1293,19 @@
         <v>41.31500304752735</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
       <c r="E10" t="n">
+        <v>17.8422975499833</v>
+      </c>
+      <c r="F10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
       <c r="G10" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>18.54795713427877</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>109.7657787133636</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>31.33212980399026</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1533,16 +1533,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
         <v>131.0206200144773</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
@@ -1587,16 +1587,16 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>81.94411774374035</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>106.0886303599897</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1615,13 +1615,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>214.8891720747067</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>1.199685898562827</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1767,22 +1767,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>12.07607700561212</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>160.7335122538381</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>214.2137278352249</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>346.2052331737127</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106.9888895409444</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>49.34995949258617</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>401.5266111030789</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>350.018173670548</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>22.91414404092908</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2256,7 +2256,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>118.018546419127</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>384.043735117664</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -2335,7 +2335,7 @@
         <v>395.4411721128946</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>266.343371731269</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>38.54651292818662</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>266.8970449970624</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>43.51400215146346</v>
+        <v>43.51400215146347</v>
       </c>
       <c r="T24" t="n">
         <v>124.6872412559295</v>
@@ -2484,19 +2484,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>83.79266343914459</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0639424294076</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>114.6362342224014</v>
+        <v>130.755438388961</v>
       </c>
       <c r="I25" t="n">
-        <v>61.56737989728833</v>
+        <v>61.56737989728835</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>142.4624845871731</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>239.69731283314</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6011387506063</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>130.42506696402</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>395.4411721128946</v>
       </c>
       <c r="H26" t="n">
-        <v>266.343371731269</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>266.8970449970606</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>43.51400215146346</v>
+        <v>43.51400215146347</v>
       </c>
       <c r="T27" t="n">
         <v>124.6872412559295</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>128.1347332838283</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2730,10 +2730,10 @@
         <v>163.0639424294076</v>
       </c>
       <c r="H28" t="n">
-        <v>130.755438388961</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>61.56737989728833</v>
+        <v>61.56737989728835</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>134.8280947182807</v>
+        <v>142.4624845871731</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>239.69731283314</v>
       </c>
       <c r="U28" t="n">
         <v>275.6011387506063</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>13.99795463753924</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>266.343371731269</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>38.54651292818662</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.3624689967422</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4746651801473</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>197.994254043789</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>43.51400215146346</v>
+        <v>43.51400215146347</v>
       </c>
       <c r="T30" t="n">
         <v>124.6872412559295</v>
@@ -2958,19 +2958,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>145.6462211641739</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0639424294076</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>130.755438388961</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>61.56737989728835</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>142.4624845871731</v>
       </c>
       <c r="T31" t="n">
-        <v>239.69731283314</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>274.5102272138188</v>
+        <v>275.6011387506063</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3031,22 +3031,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>230.787530132657</v>
+        <v>395.4411721128946</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>266.343371731269</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>38.54651292818662</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4746651801473</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>176.5613571044813</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>43.51400215146346</v>
+        <v>43.51400215146347</v>
       </c>
       <c r="T33" t="n">
         <v>124.6872412559295</v>
@@ -3192,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>130.6508024230168</v>
+        <v>130.6508024230154</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3268,22 +3268,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>17.24999298370814</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.4411721128946</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>266.343371731269</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>250.1730229641981</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>43.51400215146346</v>
+        <v>43.51400215146347</v>
       </c>
       <c r="T36" t="n">
         <v>124.6872412559295</v>
@@ -3429,10 +3429,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>130.650802423015</v>
       </c>
       <c r="E37" t="n">
-        <v>134.4920132642943</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>149.0860937230293</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>368.6208555132994</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.3624689967422</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>43.51400215146346</v>
+        <v>43.51400215146347</v>
       </c>
       <c r="T39" t="n">
         <v>124.6872412559295</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0639424294076</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>61.56737989728835</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.4624845871731</v>
       </c>
       <c r="T40" t="n">
         <v>239.69731283314</v>
       </c>
       <c r="U40" t="n">
-        <v>242.0327283031299</v>
+        <v>275.6011387506063</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>178.6029020199763</v>
       </c>
     </row>
     <row r="41">
@@ -3796,16 +3796,16 @@
         <v>209.3624689967422</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4746651801473</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>321.8694980103545</v>
       </c>
       <c r="X41" t="n">
-        <v>79.53897157361364</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>43.51400215146346</v>
+        <v>43.51400215146347</v>
       </c>
       <c r="T42" t="n">
         <v>124.6872412559295</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3906,16 +3906,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>166.9695121749827</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0639424294076</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>130.755438388961</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>164.2962805462114</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>231.9900793241826</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>395.4411721128946</v>
       </c>
       <c r="H44" t="n">
-        <v>266.343371731269</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>38.54651292818662</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.3624689967422</v>
       </c>
       <c r="U44" t="n">
         <v>256.4746651801473</v>
       </c>
       <c r="V44" t="n">
-        <v>164.0018932816925</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>43.51400215146346</v>
+        <v>43.51400215146347</v>
       </c>
       <c r="T45" t="n">
         <v>124.6872412559295</v>
@@ -4140,10 +4140,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>87.5748347082782</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4155,7 +4155,7 @@
         <v>130.755438388961</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>61.56737989728835</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>239.69731283314</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6011387506063</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>28.26943604857328</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.23514514047848</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="C5" t="n">
-        <v>10.14751579941803</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="D5" t="n">
-        <v>6.852011837538958</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="E5" t="n">
-        <v>3.55650787565989</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J5" t="n">
-        <v>1.160310701713749</v>
+        <v>1.160310701713751</v>
       </c>
       <c r="K5" t="n">
-        <v>2.50813845558963</v>
+        <v>2.508138455589632</v>
       </c>
       <c r="L5" t="n">
         <v>4.180237967355347</v>
@@ -4582,13 +4582,13 @@
         <v>7.931409106423309</v>
       </c>
       <c r="O5" t="n">
-        <v>9.716685196678942</v>
+        <v>9.71668519667894</v>
       </c>
       <c r="P5" t="n">
         <v>11.24037703589</v>
       </c>
       <c r="Q5" t="n">
-        <v>12.38460615143388</v>
+        <v>12.38460615143387</v>
       </c>
       <c r="R5" t="n">
         <v>13.05019568904111</v>
@@ -4606,13 +4606,13 @@
         <v>13.05019568904111</v>
       </c>
       <c r="W5" t="n">
-        <v>12.23514514047848</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="X5" t="n">
-        <v>12.23514514047848</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.23514514047848</v>
+        <v>9.754691727162038</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2610039137808222</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2610039137808222</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2610039137808222</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2610039137808222</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4561956203818616</v>
+        <v>3.490927346818495</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9918165824064465</v>
+        <v>4.02654830884308</v>
       </c>
       <c r="K6" t="n">
-        <v>1.907278118958099</v>
+        <v>4.942009845394732</v>
       </c>
       <c r="L6" t="n">
-        <v>3.138229129822361</v>
+        <v>6.172960856258994</v>
       </c>
       <c r="M6" t="n">
-        <v>4.574690899292686</v>
+        <v>7.609422625729318</v>
       </c>
       <c r="N6" t="n">
-        <v>6.049171537475494</v>
+        <v>9.083903263912125</v>
       </c>
       <c r="O6" t="n">
-        <v>9.279094970513167</v>
+        <v>10.43276498467475</v>
       </c>
       <c r="P6" t="n">
-        <v>10.36167541917509</v>
+        <v>11.51534543333666</v>
       </c>
       <c r="Q6" t="n">
-        <v>12.69820412233483</v>
+        <v>12.23902179370821</v>
       </c>
       <c r="R6" t="n">
         <v>13.05019568904111</v>
       </c>
       <c r="S6" t="n">
-        <v>13.05019568904111</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="T6" t="n">
-        <v>10.14751579941803</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="U6" t="n">
-        <v>10.14751579941803</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="V6" t="n">
-        <v>6.852011837538958</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="W6" t="n">
-        <v>6.852011837538958</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="X6" t="n">
-        <v>3.55650787565989</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.55650787565989</v>
+        <v>9.754691727162038</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.55650787565989</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="C7" t="n">
-        <v>3.55650787565989</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="D7" t="n">
-        <v>3.55650787565989</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="E7" t="n">
-        <v>3.55650787565989</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="F7" t="n">
-        <v>3.55650787565989</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="G7" t="n">
-        <v>3.55650787565989</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2610039137808222</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J7" t="n">
-        <v>3.490927346818497</v>
+        <v>3.490927346818495</v>
       </c>
       <c r="K7" t="n">
-        <v>6.571479234956531</v>
+        <v>6.720850779856169</v>
       </c>
       <c r="L7" t="n">
-        <v>7.278108676313658</v>
+        <v>9.933188151431848</v>
       </c>
       <c r="M7" t="n">
-        <v>8.023150345466217</v>
+        <v>10.67822982058441</v>
       </c>
       <c r="N7" t="n">
-        <v>8.750476588976339</v>
+        <v>11.40555606409453</v>
       </c>
       <c r="O7" t="n">
-        <v>9.422280096021748</v>
+        <v>12.07735957113994</v>
       </c>
       <c r="P7" t="n">
         <v>12.65220352905942</v>
@@ -4749,28 +4749,28 @@
         <v>13.05019568904111</v>
       </c>
       <c r="R7" t="n">
-        <v>13.05019568904111</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="S7" t="n">
-        <v>13.05019568904111</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="T7" t="n">
-        <v>13.05019568904111</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="U7" t="n">
-        <v>13.05019568904111</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="V7" t="n">
-        <v>13.05019568904111</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="W7" t="n">
-        <v>9.75469172716204</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="X7" t="n">
-        <v>6.459187765282972</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.55650787565989</v>
+        <v>6.852011837538956</v>
       </c>
     </row>
     <row r="8">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="C9" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D9" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E9" t="n">
-        <v>123.5276858794757</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="F9" t="n">
-        <v>86.08590667097184</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G9" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>5.706527910441171</v>
+        <v>31.77020107089877</v>
       </c>
       <c r="J9" t="n">
-        <v>12.29595456866669</v>
+        <v>38.35962772912429</v>
       </c>
       <c r="K9" t="n">
-        <v>23.55833427601031</v>
+        <v>49.62200743646791</v>
       </c>
       <c r="L9" t="n">
-        <v>38.70199365651513</v>
+        <v>64.76566681697273</v>
       </c>
       <c r="M9" t="n">
-        <v>56.37392987329654</v>
+        <v>82.43760303375414</v>
       </c>
       <c r="N9" t="n">
-        <v>74.51358965724877</v>
+        <v>100.5772628177064</v>
       </c>
       <c r="O9" t="n">
-        <v>91.1078344893717</v>
+        <v>117.1715076498293</v>
       </c>
       <c r="P9" t="n">
-        <v>104.4261789416173</v>
+        <v>130.4898521020749</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.3581591730573</v>
+        <v>139.3928126638406</v>
       </c>
       <c r="R9" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="U9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="W9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="X9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="Y9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>123.5276858794757</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="C10" t="n">
-        <v>81.79535956884203</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="D10" t="n">
-        <v>81.79535956884203</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="E10" t="n">
-        <v>40.06303325820834</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F10" t="n">
-        <v>40.06303325820834</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G10" t="n">
         <v>3.305200243802188</v>
@@ -4962,22 +4962,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>9.576584257831165</v>
+        <v>7.439194768028656</v>
       </c>
       <c r="K10" t="n">
-        <v>50.47843727488324</v>
+        <v>48.34104778508073</v>
       </c>
       <c r="L10" t="n">
-        <v>59.17167971402425</v>
+        <v>57.03429022422174</v>
       </c>
       <c r="M10" t="n">
-        <v>100.0735327310763</v>
+        <v>66.20009549376488</v>
       </c>
       <c r="N10" t="n">
-        <v>109.0213956378918</v>
+        <v>107.1019485108169</v>
       </c>
       <c r="O10" t="n">
-        <v>117.2861952859146</v>
+        <v>115.3667481588397</v>
       </c>
       <c r="P10" t="n">
         <v>124.3581591730573</v>
@@ -4986,28 +4986,28 @@
         <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="S10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="T10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="U10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="V10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="W10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="X10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="Y10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>908.8487259814518</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="C11" t="n">
-        <v>908.8487259814518</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="D11" t="n">
-        <v>908.8487259814518</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="E11" t="n">
-        <v>475.073981139747</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F11" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435806</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N11" t="n">
         <v>1463.013992431967</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2116.907709953222</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V11" t="n">
-        <v>1754.290759887049</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W11" t="n">
-        <v>1754.290759887049</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X11" t="n">
-        <v>1335.14829646636</v>
+        <v>1688.947492710957</v>
       </c>
       <c r="Y11" t="n">
-        <v>1335.14829646636</v>
+        <v>1688.947492710957</v>
       </c>
     </row>
     <row r="12">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>591.9146642884097</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C13" t="n">
-        <v>419.3529527716346</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D13" t="n">
-        <v>419.3529527716346</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E13" t="n">
-        <v>419.3529527716346</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F13" t="n">
-        <v>242.6458987333908</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G13" t="n">
         <v>242.6458987333908</v>
@@ -5208,13 +5208,13 @@
         <v>1106.33113894078</v>
       </c>
       <c r="M13" t="n">
-        <v>1317.603786189002</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N13" t="n">
-        <v>1887.361501150536</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O13" t="n">
-        <v>2005.127382498298</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P13" t="n">
         <v>2105.896438675981</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T13" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U13" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V13" t="n">
-        <v>1408.311674774551</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="W13" t="n">
-        <v>1136.285270360843</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X13" t="n">
-        <v>890.893515694255</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y13" t="n">
-        <v>783.7332830073967</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>910.9837659653025</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="C14" t="n">
-        <v>910.9837659653025</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="D14" t="n">
-        <v>475.073981139747</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E14" t="n">
-        <v>475.073981139747</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
         <v>47.20655154895473</v>
@@ -5275,7 +5275,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
         <v>276.0532770435805</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V14" t="n">
-        <v>2143.267807675305</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W14" t="n">
-        <v>1738.412353086338</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="X14" t="n">
-        <v>1319.269889665649</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="Y14" t="n">
-        <v>910.9837659653025</v>
+        <v>1744.26120212753</v>
       </c>
     </row>
     <row r="15">
@@ -5354,7 +5354,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>732.1113136517137</v>
+        <v>699.0748969752678</v>
       </c>
       <c r="C16" t="n">
-        <v>559.5496021349386</v>
+        <v>686.8768393938415</v>
       </c>
       <c r="D16" t="n">
-        <v>393.6716093364613</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="E16" t="n">
-        <v>223.9136055871985</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895473</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
         <v>47.20655154895473</v>
@@ -5439,10 +5439,10 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>393.4422361027639</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L16" t="n">
-        <v>935.5229194890228</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M16" t="n">
         <v>1066.127311827552</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T16" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>1955.723270266458</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V16" t="n">
-        <v>1668.767762136888</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W16" t="n">
-        <v>1396.74135772318</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X16" t="n">
-        <v>1151.349603056593</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.9299323707007</v>
+        <v>890.893515694255</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1571.411056896655</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C17" t="n">
-        <v>1133.268584080079</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D17" t="n">
-        <v>697.3587992545231</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E17" t="n">
-        <v>263.5840544128183</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895473</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V17" t="n">
-        <v>1997.710627381563</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W17" t="n">
-        <v>1997.710627381563</v>
+        <v>1970.158951931511</v>
       </c>
       <c r="X17" t="n">
-        <v>1997.710627381563</v>
+        <v>1551.016488510822</v>
       </c>
       <c r="Y17" t="n">
-        <v>1997.710627381563</v>
+        <v>1142.730364810475</v>
       </c>
     </row>
     <row r="18">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>555.4042596134699</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C19" t="n">
-        <v>382.8425480966948</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D19" t="n">
-        <v>216.9645552982175</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="E19" t="n">
-        <v>47.20655154895473</v>
+        <v>273.7620495191038</v>
       </c>
       <c r="F19" t="n">
-        <v>47.20655154895473</v>
+        <v>97.05499548085996</v>
       </c>
       <c r="G19" t="n">
         <v>47.20655154895473</v>
@@ -5673,25 +5673,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>1106.33113894078</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M19" t="n">
-        <v>1236.93553127931</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N19" t="n">
-        <v>1364.434443083199</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T19" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U19" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V19" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W19" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X19" t="n">
-        <v>890.893515694255</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y19" t="n">
-        <v>663.4738450083632</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1122.013229783223</v>
+        <v>1754.536245353315</v>
       </c>
       <c r="C20" t="n">
-        <v>1122.013229783223</v>
+        <v>1316.393772536738</v>
       </c>
       <c r="D20" t="n">
-        <v>1122.013229783223</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E20" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F20" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L20" t="n">
         <v>805.4408022867023</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>1889.485634438363</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V20" t="n">
-        <v>1526.868684372189</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W20" t="n">
-        <v>1122.013229783223</v>
+        <v>1754.536245353315</v>
       </c>
       <c r="X20" t="n">
-        <v>1122.013229783223</v>
+        <v>1754.536245353315</v>
       </c>
       <c r="Y20" t="n">
-        <v>1122.013229783223</v>
+        <v>1754.536245353315</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
-        <v>858.9930882810423</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N21" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P21" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q21" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R21" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S21" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T21" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U21" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V21" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W21" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X21" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y21" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>713.9024503859694</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="C22" t="n">
-        <v>713.9024503859694</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D22" t="n">
-        <v>690.7568503446269</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E22" t="n">
-        <v>520.9988465953642</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F22" t="n">
-        <v>344.2917925571204</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G22" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H22" t="n">
         <v>47.20655154895473</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T22" t="n">
-        <v>2215.901038951971</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U22" t="n">
-        <v>1937.514407000714</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V22" t="n">
-        <v>1650.558898871144</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W22" t="n">
-        <v>1378.532494457436</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X22" t="n">
-        <v>1133.140739790848</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y22" t="n">
-        <v>905.7210691049565</v>
+        <v>916.1094012414073</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1748.100026061657</v>
+        <v>2405.056699646438</v>
       </c>
       <c r="C23" t="n">
-        <v>1309.957553245081</v>
+        <v>1966.914226829861</v>
       </c>
       <c r="D23" t="n">
-        <v>1309.957553245081</v>
+        <v>1578.991262064544</v>
       </c>
       <c r="E23" t="n">
-        <v>876.1828084033759</v>
+        <v>1145.216517222839</v>
       </c>
       <c r="F23" t="n">
-        <v>448.3153788125837</v>
+        <v>717.3490876320473</v>
       </c>
       <c r="G23" t="n">
-        <v>48.87985142582146</v>
+        <v>317.9135602452851</v>
       </c>
       <c r="H23" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582143</v>
       </c>
       <c r="I23" t="n">
         <v>122.6176114159378</v>
@@ -5992,49 +5992,49 @@
         <v>285.8514025294307</v>
       </c>
       <c r="K23" t="n">
-        <v>530.4965414133957</v>
+        <v>530.4965414133954</v>
       </c>
       <c r="L23" t="n">
-        <v>834.0004692019343</v>
+        <v>834.0004692019338</v>
       </c>
       <c r="M23" t="n">
         <v>1171.707067812895</v>
       </c>
       <c r="N23" t="n">
-        <v>1514.878112250761</v>
+        <v>1514.87811225076</v>
       </c>
       <c r="O23" t="n">
-        <v>1838.924798328299</v>
+        <v>1838.924798328298</v>
       </c>
       <c r="P23" t="n">
-        <v>2115.491147810431</v>
+        <v>2115.49114781043</v>
       </c>
       <c r="Q23" t="n">
-        <v>2323.180958383278</v>
+        <v>2323.180958383277</v>
       </c>
       <c r="R23" t="n">
-        <v>2443.992571291073</v>
+        <v>2443.992571291071</v>
       </c>
       <c r="S23" t="n">
-        <v>2443.992571291073</v>
+        <v>2405.056699646438</v>
       </c>
       <c r="T23" t="n">
-        <v>2443.992571291073</v>
+        <v>2405.056699646438</v>
       </c>
       <c r="U23" t="n">
-        <v>2443.992571291073</v>
+        <v>2405.056699646438</v>
       </c>
       <c r="V23" t="n">
-        <v>2443.992571291073</v>
+        <v>2405.056699646438</v>
       </c>
       <c r="W23" t="n">
-        <v>2443.992571291073</v>
+        <v>2405.056699646438</v>
       </c>
       <c r="X23" t="n">
-        <v>2174.399596546565</v>
+        <v>2405.056699646438</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.399596546565</v>
+        <v>2405.056699646438</v>
       </c>
     </row>
     <row r="24">
@@ -6059,34 +6059,34 @@
         <v>164.8106011213534</v>
       </c>
       <c r="G24" t="n">
-        <v>80.47543658368234</v>
+        <v>80.47543658368231</v>
       </c>
       <c r="H24" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582143</v>
       </c>
       <c r="I24" t="n">
-        <v>48.87985142582146</v>
+        <v>84.30923179960388</v>
       </c>
       <c r="J24" t="n">
-        <v>146.1007791495983</v>
+        <v>181.5301595233807</v>
       </c>
       <c r="K24" t="n">
-        <v>312.2668297510697</v>
+        <v>347.6962101248519</v>
       </c>
       <c r="L24" t="n">
-        <v>535.6975909490444</v>
+        <v>571.1269713228265</v>
       </c>
       <c r="M24" t="n">
-        <v>796.430750718906</v>
+        <v>831.860131092688</v>
       </c>
       <c r="N24" t="n">
-        <v>1064.064741392145</v>
+        <v>1040.54875527349</v>
       </c>
       <c r="O24" t="n">
-        <v>1308.897556314002</v>
+        <v>1285.381570195347</v>
       </c>
       <c r="P24" t="n">
-        <v>1505.39747513104</v>
+        <v>1481.881489012384</v>
       </c>
       <c r="Q24" t="n">
         <v>1613.236480910291</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1076.479115093325</v>
+        <v>842.931136774665</v>
       </c>
       <c r="C25" t="n">
-        <v>903.9174035765501</v>
+        <v>670.3694252578899</v>
       </c>
       <c r="D25" t="n">
-        <v>738.0394107780728</v>
+        <v>504.4914324594126</v>
       </c>
       <c r="E25" t="n">
-        <v>568.28140702881</v>
+        <v>419.8523784804787</v>
       </c>
       <c r="F25" t="n">
-        <v>391.5743529905662</v>
+        <v>243.1453244422349</v>
       </c>
       <c r="G25" t="n">
-        <v>226.8633000315687</v>
+        <v>243.1453244422349</v>
       </c>
       <c r="H25" t="n">
         <v>111.069124049345</v>
       </c>
       <c r="I25" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582143</v>
       </c>
       <c r="J25" t="n">
-        <v>196.4528223035573</v>
+        <v>109.8731371388674</v>
       </c>
       <c r="K25" t="n">
-        <v>571.4419816982402</v>
+        <v>210.1038419624146</v>
       </c>
       <c r="L25" t="n">
-        <v>1117.912657416459</v>
+        <v>370.8189294191222</v>
       </c>
       <c r="M25" t="n">
-        <v>1253.145681146696</v>
+        <v>965.5358203302719</v>
       </c>
       <c r="N25" t="n">
-        <v>1385.163165833298</v>
+        <v>1539.812108174518</v>
       </c>
       <c r="O25" t="n">
-        <v>1733.91397818712</v>
+        <v>2081.420872157461</v>
       </c>
       <c r="P25" t="n">
-        <v>2185.761192734338</v>
+        <v>2185.761192734336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2426.193797186283</v>
+        <v>2426.193797186282</v>
       </c>
       <c r="R25" t="n">
-        <v>2443.992571291073</v>
+        <v>2443.992571291071</v>
       </c>
       <c r="S25" t="n">
-        <v>2300.09107170807</v>
+        <v>2300.091071708068</v>
       </c>
       <c r="T25" t="n">
-        <v>2300.09107170807</v>
+        <v>2057.972573896816</v>
       </c>
       <c r="U25" t="n">
-        <v>2300.09107170807</v>
+        <v>1779.58758525984</v>
       </c>
       <c r="V25" t="n">
-        <v>2013.1355635785</v>
+        <v>1779.58758525984</v>
       </c>
       <c r="W25" t="n">
-        <v>1741.109159164792</v>
+        <v>1507.561180846131</v>
       </c>
       <c r="X25" t="n">
-        <v>1495.717404498204</v>
+        <v>1262.169426179544</v>
       </c>
       <c r="Y25" t="n">
-        <v>1268.297733812312</v>
+        <v>1034.749755493652</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>849.0915795148959</v>
+        <v>1748.100026061657</v>
       </c>
       <c r="C26" t="n">
-        <v>849.0915795148959</v>
+        <v>1309.957553245081</v>
       </c>
       <c r="D26" t="n">
-        <v>849.0915795148959</v>
+        <v>1309.957553245081</v>
       </c>
       <c r="E26" t="n">
-        <v>849.0915795148959</v>
+        <v>876.1828084033759</v>
       </c>
       <c r="F26" t="n">
-        <v>717.3490876320474</v>
+        <v>448.3153788125837</v>
       </c>
       <c r="G26" t="n">
-        <v>317.9135602452851</v>
+        <v>48.87985142582141</v>
       </c>
       <c r="H26" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582141</v>
       </c>
       <c r="I26" t="n">
-        <v>122.6176114159378</v>
+        <v>122.6176114159377</v>
       </c>
       <c r="J26" t="n">
-        <v>285.8514025294305</v>
+        <v>285.8514025294302</v>
       </c>
       <c r="K26" t="n">
-        <v>530.4965414133954</v>
+        <v>530.4965414133951</v>
       </c>
       <c r="L26" t="n">
-        <v>834.000469201934</v>
+        <v>834.0004692019336</v>
       </c>
       <c r="M26" t="n">
-        <v>1171.707067812895</v>
+        <v>1171.707067812894</v>
       </c>
       <c r="N26" t="n">
-        <v>1514.87811225076</v>
+        <v>1514.878112250759</v>
       </c>
       <c r="O26" t="n">
         <v>1838.924798328298</v>
       </c>
       <c r="P26" t="n">
-        <v>2115.491147810431</v>
+        <v>2115.49114781043</v>
       </c>
       <c r="Q26" t="n">
-        <v>2323.180958383277</v>
+        <v>2323.180958383276</v>
       </c>
       <c r="R26" t="n">
-        <v>2443.992571291072</v>
+        <v>2443.992571291071</v>
       </c>
       <c r="S26" t="n">
-        <v>2443.992571291072</v>
+        <v>2443.992571291071</v>
       </c>
       <c r="T26" t="n">
-        <v>2443.992571291072</v>
+        <v>2443.992571291071</v>
       </c>
       <c r="U26" t="n">
-        <v>2443.992571291072</v>
+        <v>2443.992571291071</v>
       </c>
       <c r="V26" t="n">
-        <v>2081.375621224899</v>
+        <v>2443.992571291071</v>
       </c>
       <c r="W26" t="n">
-        <v>1676.520166635932</v>
+        <v>2443.992571291071</v>
       </c>
       <c r="X26" t="n">
-        <v>1257.377703215242</v>
+        <v>2443.992571291071</v>
       </c>
       <c r="Y26" t="n">
-        <v>849.0915795148959</v>
+        <v>2174.399596546565</v>
       </c>
     </row>
     <row r="27">
@@ -6284,7 +6284,7 @@
         <v>543.8616041950426</v>
       </c>
       <c r="C27" t="n">
-        <v>437.4051430316849</v>
+        <v>437.4051430316848</v>
       </c>
       <c r="D27" t="n">
         <v>342.3148541782381</v>
@@ -6296,31 +6296,31 @@
         <v>164.8106011213534</v>
       </c>
       <c r="G27" t="n">
-        <v>80.47543658368232</v>
+        <v>80.4754365836823</v>
       </c>
       <c r="H27" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582141</v>
       </c>
       <c r="I27" t="n">
-        <v>84.30923179960392</v>
+        <v>84.30923179960388</v>
       </c>
       <c r="J27" t="n">
-        <v>181.5301595233808</v>
+        <v>122.5847930309439</v>
       </c>
       <c r="K27" t="n">
-        <v>347.6962101248521</v>
+        <v>288.7508436324151</v>
       </c>
       <c r="L27" t="n">
-        <v>571.1269713228269</v>
+        <v>512.1816048303897</v>
       </c>
       <c r="M27" t="n">
-        <v>831.8601310926884</v>
+        <v>772.9147646002513</v>
       </c>
       <c r="N27" t="n">
-        <v>1099.494121765928</v>
+        <v>1040.54875527349</v>
       </c>
       <c r="O27" t="n">
-        <v>1344.326936687785</v>
+        <v>1285.381570195347</v>
       </c>
       <c r="P27" t="n">
         <v>1481.881489012384</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.761139503991</v>
+        <v>747.7942473640821</v>
       </c>
       <c r="C28" t="n">
-        <v>920.1994279872162</v>
+        <v>618.3652238450636</v>
       </c>
       <c r="D28" t="n">
-        <v>754.3214351887389</v>
+        <v>452.4872310465863</v>
       </c>
       <c r="E28" t="n">
-        <v>584.5634314394762</v>
+        <v>452.4872310465863</v>
       </c>
       <c r="F28" t="n">
-        <v>407.8563774012324</v>
+        <v>275.7801770083425</v>
       </c>
       <c r="G28" t="n">
-        <v>243.1453244422349</v>
+        <v>111.069124049345</v>
       </c>
       <c r="H28" t="n">
         <v>111.069124049345</v>
       </c>
       <c r="I28" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582141</v>
       </c>
       <c r="J28" t="n">
-        <v>196.4528223035573</v>
+        <v>109.8731371388673</v>
       </c>
       <c r="K28" t="n">
-        <v>571.4419816982402</v>
+        <v>210.1038419624146</v>
       </c>
       <c r="L28" t="n">
-        <v>1117.912657416459</v>
+        <v>756.5745176806333</v>
       </c>
       <c r="M28" t="n">
-        <v>1253.145681146696</v>
+        <v>1351.291408591783</v>
       </c>
       <c r="N28" t="n">
-        <v>1385.163165833298</v>
+        <v>1708.00488303885</v>
       </c>
       <c r="O28" t="n">
-        <v>1733.91397818712</v>
+        <v>2249.613647021793</v>
       </c>
       <c r="P28" t="n">
-        <v>2185.761192734337</v>
+        <v>2353.953967598668</v>
       </c>
       <c r="Q28" t="n">
-        <v>2426.193797186283</v>
+        <v>2426.193797186281</v>
       </c>
       <c r="R28" t="n">
-        <v>2443.992571291072</v>
+        <v>2443.992571291071</v>
       </c>
       <c r="S28" t="n">
-        <v>2307.802576626142</v>
+        <v>2300.091071708068</v>
       </c>
       <c r="T28" t="n">
-        <v>2307.802576626142</v>
+        <v>2057.972573896815</v>
       </c>
       <c r="U28" t="n">
-        <v>2029.417587989166</v>
+        <v>1779.587585259839</v>
       </c>
       <c r="V28" t="n">
-        <v>2029.417587989166</v>
+        <v>1492.63207713027</v>
       </c>
       <c r="W28" t="n">
-        <v>1757.391183575458</v>
+        <v>1220.605672716561</v>
       </c>
       <c r="X28" t="n">
-        <v>1511.99942890887</v>
+        <v>975.2139180499739</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.579758222978</v>
+        <v>747.7942473640821</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1193.695082796509</v>
+        <v>910.5220258583186</v>
       </c>
       <c r="C29" t="n">
-        <v>1193.695082796509</v>
+        <v>910.5220258583186</v>
       </c>
       <c r="D29" t="n">
-        <v>1179.555734677782</v>
+        <v>910.5220258583186</v>
       </c>
       <c r="E29" t="n">
-        <v>745.7809898360774</v>
+        <v>476.7472810166137</v>
       </c>
       <c r="F29" t="n">
-        <v>317.9135602452851</v>
+        <v>48.87985142582141</v>
       </c>
       <c r="G29" t="n">
-        <v>317.9135602452851</v>
+        <v>48.87985142582141</v>
       </c>
       <c r="H29" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582141</v>
       </c>
       <c r="I29" t="n">
-        <v>122.6176114159379</v>
+        <v>122.6176114159376</v>
       </c>
       <c r="J29" t="n">
-        <v>285.8514025294305</v>
+        <v>285.8514025294301</v>
       </c>
       <c r="K29" t="n">
-        <v>530.4965414133954</v>
+        <v>530.496541413395</v>
       </c>
       <c r="L29" t="n">
-        <v>834.0004692019342</v>
+        <v>834.0004692019335</v>
       </c>
       <c r="M29" t="n">
-        <v>1171.707067812895</v>
+        <v>1171.707067812894</v>
       </c>
       <c r="N29" t="n">
-        <v>1514.878112250761</v>
+        <v>1514.878112250759</v>
       </c>
       <c r="O29" t="n">
-        <v>1838.924798328299</v>
+        <v>1838.924798328298</v>
       </c>
       <c r="P29" t="n">
-        <v>2115.491147810431</v>
+        <v>2115.49114781043</v>
       </c>
       <c r="Q29" t="n">
-        <v>2323.180958383278</v>
+        <v>2323.180958383276</v>
       </c>
       <c r="R29" t="n">
-        <v>2443.992571291073</v>
+        <v>2443.992571291071</v>
       </c>
       <c r="S29" t="n">
-        <v>2443.992571291073</v>
+        <v>2405.056699646438</v>
       </c>
       <c r="T29" t="n">
-        <v>2443.992571291073</v>
+        <v>2193.579458235587</v>
       </c>
       <c r="U29" t="n">
-        <v>2443.992571291073</v>
+        <v>1934.514139871802</v>
       </c>
       <c r="V29" t="n">
-        <v>2443.992571291073</v>
+        <v>1934.514139871802</v>
       </c>
       <c r="W29" t="n">
-        <v>2039.137116702106</v>
+        <v>1529.658685282835</v>
       </c>
       <c r="X29" t="n">
-        <v>1619.994653281417</v>
+        <v>1110.516221862146</v>
       </c>
       <c r="Y29" t="n">
-        <v>1619.994653281417</v>
+        <v>910.5220258583186</v>
       </c>
     </row>
     <row r="30">
@@ -6521,7 +6521,7 @@
         <v>543.8616041950426</v>
       </c>
       <c r="C30" t="n">
-        <v>437.4051430316849</v>
+        <v>437.4051430316848</v>
       </c>
       <c r="D30" t="n">
         <v>342.3148541782381</v>
@@ -6533,25 +6533,25 @@
         <v>164.8106011213534</v>
       </c>
       <c r="G30" t="n">
-        <v>80.47543658368234</v>
+        <v>80.4754365836823</v>
       </c>
       <c r="H30" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582141</v>
       </c>
       <c r="I30" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582141</v>
       </c>
       <c r="J30" t="n">
-        <v>146.1007791495983</v>
+        <v>122.5847930309439</v>
       </c>
       <c r="K30" t="n">
-        <v>312.2668297510697</v>
+        <v>288.7508436324151</v>
       </c>
       <c r="L30" t="n">
-        <v>512.1816048303893</v>
+        <v>512.1816048303897</v>
       </c>
       <c r="M30" t="n">
-        <v>772.9147646002509</v>
+        <v>772.9147646002513</v>
       </c>
       <c r="N30" t="n">
         <v>1040.54875527349</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>557.0775594903366</v>
+        <v>1070.120530870056</v>
       </c>
       <c r="C31" t="n">
-        <v>384.5158479735616</v>
+        <v>897.5588193532807</v>
       </c>
       <c r="D31" t="n">
-        <v>218.6378551750842</v>
+        <v>731.6808265548034</v>
       </c>
       <c r="E31" t="n">
-        <v>48.87985142582146</v>
+        <v>584.5634314394762</v>
       </c>
       <c r="F31" t="n">
-        <v>48.87985142582146</v>
+        <v>407.8563774012324</v>
       </c>
       <c r="G31" t="n">
-        <v>48.87985142582146</v>
+        <v>243.1453244422349</v>
       </c>
       <c r="H31" t="n">
-        <v>48.87985142582146</v>
+        <v>111.069124049345</v>
       </c>
       <c r="I31" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582141</v>
       </c>
       <c r="J31" t="n">
-        <v>196.4528223035573</v>
+        <v>196.4528223035572</v>
       </c>
       <c r="K31" t="n">
-        <v>296.6835271271046</v>
+        <v>296.6835271271045</v>
       </c>
       <c r="L31" t="n">
-        <v>843.1542028453234</v>
+        <v>843.1542028453232</v>
       </c>
       <c r="M31" t="n">
-        <v>978.3872265755604</v>
+        <v>978.38722657556</v>
       </c>
       <c r="N31" t="n">
-        <v>1192.305214204178</v>
+        <v>1360.497989068509</v>
       </c>
       <c r="O31" t="n">
-        <v>1733.91397818712</v>
+        <v>1902.106753051451</v>
       </c>
       <c r="P31" t="n">
-        <v>2185.761192734338</v>
+        <v>2353.953967598668</v>
       </c>
       <c r="Q31" t="n">
-        <v>2426.193797186283</v>
+        <v>2426.193797186281</v>
       </c>
       <c r="R31" t="n">
-        <v>2443.992571291073</v>
+        <v>2443.992571291071</v>
       </c>
       <c r="S31" t="n">
-        <v>2300.09107170807</v>
+        <v>2300.091071708068</v>
       </c>
       <c r="T31" t="n">
-        <v>2057.972573896817</v>
+        <v>2300.091071708068</v>
       </c>
       <c r="U31" t="n">
-        <v>1780.689516105081</v>
+        <v>2021.706083071092</v>
       </c>
       <c r="V31" t="n">
-        <v>1493.734007975512</v>
+        <v>1734.750574941522</v>
       </c>
       <c r="W31" t="n">
-        <v>1221.707603561803</v>
+        <v>1734.750574941522</v>
       </c>
       <c r="X31" t="n">
-        <v>976.3158488952156</v>
+        <v>1489.358820274935</v>
       </c>
       <c r="Y31" t="n">
-        <v>748.8961782093238</v>
+        <v>1261.939149589043</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2017.693000806165</v>
+        <v>717.3490876320473</v>
       </c>
       <c r="C32" t="n">
-        <v>1579.550527989588</v>
+        <v>717.3490876320473</v>
       </c>
       <c r="D32" t="n">
-        <v>1143.640743164033</v>
+        <v>717.3490876320473</v>
       </c>
       <c r="E32" t="n">
-        <v>709.8659983223279</v>
+        <v>717.3490876320473</v>
       </c>
       <c r="F32" t="n">
-        <v>281.9985687315356</v>
+        <v>717.3490876320473</v>
       </c>
       <c r="G32" t="n">
-        <v>48.87985142582146</v>
+        <v>317.9135602452851</v>
       </c>
       <c r="H32" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582143</v>
       </c>
       <c r="I32" t="n">
-        <v>122.6176114159379</v>
+        <v>122.6176114159381</v>
       </c>
       <c r="J32" t="n">
-        <v>285.8514025294305</v>
+        <v>285.8514025294306</v>
       </c>
       <c r="K32" t="n">
         <v>530.4965414133954</v>
       </c>
       <c r="L32" t="n">
-        <v>834.0004692019342</v>
+        <v>834.0004692019339</v>
       </c>
       <c r="M32" t="n">
         <v>1171.707067812895</v>
       </c>
       <c r="N32" t="n">
-        <v>1514.878112250761</v>
+        <v>1514.87811225076</v>
       </c>
       <c r="O32" t="n">
-        <v>1838.924798328299</v>
+        <v>1838.924798328298</v>
       </c>
       <c r="P32" t="n">
-        <v>2115.491147810431</v>
+        <v>2115.49114781043</v>
       </c>
       <c r="Q32" t="n">
-        <v>2323.180958383278</v>
+        <v>2323.180958383277</v>
       </c>
       <c r="R32" t="n">
-        <v>2443.992571291073</v>
+        <v>2443.992571291071</v>
       </c>
       <c r="S32" t="n">
-        <v>2443.992571291073</v>
+        <v>2405.056699646438</v>
       </c>
       <c r="T32" t="n">
-        <v>2443.992571291073</v>
+        <v>2405.056699646438</v>
       </c>
       <c r="U32" t="n">
-        <v>2443.992571291073</v>
+        <v>2145.991381282653</v>
       </c>
       <c r="V32" t="n">
-        <v>2443.992571291073</v>
+        <v>2145.991381282653</v>
       </c>
       <c r="W32" t="n">
-        <v>2443.992571291073</v>
+        <v>1741.135926693686</v>
       </c>
       <c r="X32" t="n">
-        <v>2443.992571291073</v>
+        <v>1321.993463272997</v>
       </c>
       <c r="Y32" t="n">
-        <v>2443.992571291073</v>
+        <v>1143.648658116955</v>
       </c>
     </row>
     <row r="33">
@@ -6770,25 +6770,25 @@
         <v>164.8106011213534</v>
       </c>
       <c r="G33" t="n">
-        <v>80.47543658368234</v>
+        <v>80.47543658368231</v>
       </c>
       <c r="H33" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582143</v>
       </c>
       <c r="I33" t="n">
-        <v>84.30923179960394</v>
+        <v>84.30923179960388</v>
       </c>
       <c r="J33" t="n">
-        <v>181.5301595233808</v>
+        <v>122.5847930309439</v>
       </c>
       <c r="K33" t="n">
-        <v>347.6962101248521</v>
+        <v>288.7508436324151</v>
       </c>
       <c r="L33" t="n">
-        <v>512.1816048303893</v>
+        <v>512.1816048303897</v>
       </c>
       <c r="M33" t="n">
-        <v>772.9147646002509</v>
+        <v>772.9147646002513</v>
       </c>
       <c r="N33" t="n">
         <v>1040.54875527349</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>699.8771282280998</v>
+        <v>699.8771282280984</v>
       </c>
       <c r="C34" t="n">
-        <v>527.3154167113247</v>
+        <v>527.3154167113233</v>
       </c>
       <c r="D34" t="n">
         <v>395.344909213328</v>
@@ -6846,64 +6846,64 @@
         <v>225.5869054640652</v>
       </c>
       <c r="F34" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582143</v>
       </c>
       <c r="G34" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582143</v>
       </c>
       <c r="H34" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582143</v>
       </c>
       <c r="I34" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582143</v>
       </c>
       <c r="J34" t="n">
         <v>109.8731371388674</v>
       </c>
       <c r="K34" t="n">
-        <v>210.1038419624147</v>
+        <v>210.1038419624146</v>
       </c>
       <c r="L34" t="n">
-        <v>756.5745176806336</v>
+        <v>650.988677494026</v>
       </c>
       <c r="M34" t="n">
-        <v>1351.291408591783</v>
+        <v>786.2217012242628</v>
       </c>
       <c r="N34" t="n">
-        <v>1925.56769643603</v>
+        <v>1360.497989068509</v>
       </c>
       <c r="O34" t="n">
-        <v>2249.613647021794</v>
+        <v>1902.106753051452</v>
       </c>
       <c r="P34" t="n">
-        <v>2353.95396759867</v>
+        <v>2353.953967598669</v>
       </c>
       <c r="Q34" t="n">
-        <v>2426.193797186283</v>
+        <v>2426.193797186282</v>
       </c>
       <c r="R34" t="n">
-        <v>2443.992571291073</v>
+        <v>2443.992571291071</v>
       </c>
       <c r="S34" t="n">
-        <v>2443.992571291073</v>
+        <v>2443.992571291071</v>
       </c>
       <c r="T34" t="n">
-        <v>2201.87407347982</v>
+        <v>2201.874073479819</v>
       </c>
       <c r="U34" t="n">
-        <v>1923.489084842844</v>
+        <v>1923.489084842843</v>
       </c>
       <c r="V34" t="n">
-        <v>1636.533576713275</v>
+        <v>1636.533576713273</v>
       </c>
       <c r="W34" t="n">
-        <v>1364.507172299566</v>
+        <v>1364.507172299565</v>
       </c>
       <c r="X34" t="n">
-        <v>1119.115417632979</v>
+        <v>1119.115417632977</v>
       </c>
       <c r="Y34" t="n">
-        <v>891.6957469470869</v>
+        <v>891.6957469470856</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1356.706853909659</v>
+        <v>1598.550537385474</v>
       </c>
       <c r="C35" t="n">
-        <v>918.5643810930818</v>
+        <v>1598.550537385474</v>
       </c>
       <c r="D35" t="n">
-        <v>482.6545962675263</v>
+        <v>1162.640752559918</v>
       </c>
       <c r="E35" t="n">
-        <v>48.87985142582146</v>
+        <v>1145.216517222839</v>
       </c>
       <c r="F35" t="n">
-        <v>48.87985142582146</v>
+        <v>717.3490876320473</v>
       </c>
       <c r="G35" t="n">
-        <v>48.87985142582146</v>
+        <v>317.9135602452851</v>
       </c>
       <c r="H35" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582141</v>
       </c>
       <c r="I35" t="n">
-        <v>122.6176114159378</v>
+        <v>122.6176114159376</v>
       </c>
       <c r="J35" t="n">
-        <v>285.8514025294307</v>
+        <v>285.8514025294301</v>
       </c>
       <c r="K35" t="n">
-        <v>530.4965414133957</v>
+        <v>530.496541413395</v>
       </c>
       <c r="L35" t="n">
-        <v>834.0004692019343</v>
+        <v>834.0004692019335</v>
       </c>
       <c r="M35" t="n">
-        <v>1171.707067812896</v>
+        <v>1171.707067812894</v>
       </c>
       <c r="N35" t="n">
-        <v>1514.878112250761</v>
+        <v>1514.878112250759</v>
       </c>
       <c r="O35" t="n">
-        <v>1838.924798328299</v>
+        <v>1838.924798328298</v>
       </c>
       <c r="P35" t="n">
-        <v>2115.491147810431</v>
+        <v>2115.49114781043</v>
       </c>
       <c r="Q35" t="n">
-        <v>2323.180958383278</v>
+        <v>2323.180958383276</v>
       </c>
       <c r="R35" t="n">
-        <v>2443.992571291073</v>
+        <v>2443.992571291071</v>
       </c>
       <c r="S35" t="n">
-        <v>2443.992571291073</v>
+        <v>2443.992571291071</v>
       </c>
       <c r="T35" t="n">
-        <v>2443.992571291073</v>
+        <v>2443.992571291071</v>
       </c>
       <c r="U35" t="n">
-        <v>2443.992571291073</v>
+        <v>2443.992571291071</v>
       </c>
       <c r="V35" t="n">
-        <v>2443.992571291073</v>
+        <v>2443.992571291071</v>
       </c>
       <c r="W35" t="n">
-        <v>2443.992571291073</v>
+        <v>2443.992571291071</v>
       </c>
       <c r="X35" t="n">
-        <v>2191.292548094913</v>
+        <v>2024.850107870382</v>
       </c>
       <c r="Y35" t="n">
-        <v>1783.006424394566</v>
+        <v>2024.850107870382</v>
       </c>
     </row>
     <row r="36">
@@ -6995,7 +6995,7 @@
         <v>543.8616041950426</v>
       </c>
       <c r="C36" t="n">
-        <v>437.4051430316849</v>
+        <v>437.4051430316848</v>
       </c>
       <c r="D36" t="n">
         <v>342.3148541782381</v>
@@ -7007,34 +7007,34 @@
         <v>164.8106011213534</v>
       </c>
       <c r="G36" t="n">
-        <v>80.47543658368234</v>
+        <v>80.4754365836823</v>
       </c>
       <c r="H36" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582141</v>
       </c>
       <c r="I36" t="n">
-        <v>84.30923179960394</v>
+        <v>84.30923179960388</v>
       </c>
       <c r="J36" t="n">
-        <v>181.5301595233808</v>
+        <v>181.5301595233807</v>
       </c>
       <c r="K36" t="n">
-        <v>347.6962101248521</v>
+        <v>347.6962101248519</v>
       </c>
       <c r="L36" t="n">
-        <v>571.1269713228269</v>
+        <v>571.1269713228265</v>
       </c>
       <c r="M36" t="n">
-        <v>831.8601310926884</v>
+        <v>831.860131092688</v>
       </c>
       <c r="N36" t="n">
-        <v>1099.494121765928</v>
+        <v>1099.494121765927</v>
       </c>
       <c r="O36" t="n">
-        <v>1344.326936687785</v>
+        <v>1344.326936687784</v>
       </c>
       <c r="P36" t="n">
-        <v>1540.826855504822</v>
+        <v>1481.881489012384</v>
       </c>
       <c r="Q36" t="n">
         <v>1613.236480910291</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>699.8771282280998</v>
+        <v>699.8771282280979</v>
       </c>
       <c r="C37" t="n">
-        <v>527.3154167113247</v>
+        <v>527.3154167113229</v>
       </c>
       <c r="D37" t="n">
-        <v>361.4374239128474</v>
+        <v>395.3449092133279</v>
       </c>
       <c r="E37" t="n">
         <v>225.5869054640652</v>
       </c>
       <c r="F37" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582141</v>
       </c>
       <c r="G37" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582141</v>
       </c>
       <c r="H37" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582141</v>
       </c>
       <c r="I37" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582141</v>
       </c>
       <c r="J37" t="n">
-        <v>109.8731371388674</v>
+        <v>109.8731371388673</v>
       </c>
       <c r="K37" t="n">
-        <v>210.1038419624147</v>
+        <v>210.1038419624146</v>
       </c>
       <c r="L37" t="n">
-        <v>756.5745176806336</v>
+        <v>756.5745176806333</v>
       </c>
       <c r="M37" t="n">
         <v>1351.291408591783</v>
       </c>
       <c r="N37" t="n">
-        <v>1780.167238294292</v>
+        <v>1483.308893278385</v>
       </c>
       <c r="O37" t="n">
-        <v>1902.106753051453</v>
+        <v>1902.106753051451</v>
       </c>
       <c r="P37" t="n">
-        <v>2353.95396759867</v>
+        <v>2353.953967598668</v>
       </c>
       <c r="Q37" t="n">
-        <v>2426.193797186283</v>
+        <v>2426.193797186281</v>
       </c>
       <c r="R37" t="n">
-        <v>2443.992571291073</v>
+        <v>2443.992571291071</v>
       </c>
       <c r="S37" t="n">
-        <v>2443.992571291073</v>
+        <v>2443.992571291071</v>
       </c>
       <c r="T37" t="n">
-        <v>2201.87407347982</v>
+        <v>2201.874073479818</v>
       </c>
       <c r="U37" t="n">
-        <v>1923.489084842844</v>
+        <v>1923.489084842842</v>
       </c>
       <c r="V37" t="n">
-        <v>1636.533576713275</v>
+        <v>1636.533576713273</v>
       </c>
       <c r="W37" t="n">
-        <v>1364.507172299566</v>
+        <v>1364.507172299564</v>
       </c>
       <c r="X37" t="n">
-        <v>1119.115417632979</v>
+        <v>1119.115417632977</v>
       </c>
       <c r="Y37" t="n">
-        <v>891.6957469470869</v>
+        <v>891.6957469470851</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>849.0915795148959</v>
+        <v>637.6143381040439</v>
       </c>
       <c r="C38" t="n">
-        <v>849.0915795148959</v>
+        <v>199.4718652874672</v>
       </c>
       <c r="D38" t="n">
-        <v>849.0915795148959</v>
+        <v>199.4718652874672</v>
       </c>
       <c r="E38" t="n">
-        <v>849.0915795148959</v>
+        <v>48.87985142582141</v>
       </c>
       <c r="F38" t="n">
-        <v>421.2241499241036</v>
+        <v>48.87985142582141</v>
       </c>
       <c r="G38" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582141</v>
       </c>
       <c r="H38" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582141</v>
       </c>
       <c r="I38" t="n">
         <v>122.6176114159376</v>
       </c>
       <c r="J38" t="n">
-        <v>285.8514025294302</v>
+        <v>285.8514025294301</v>
       </c>
       <c r="K38" t="n">
-        <v>530.4965414133952</v>
+        <v>530.496541413395</v>
       </c>
       <c r="L38" t="n">
-        <v>834.0004692019339</v>
+        <v>834.0004692019335</v>
       </c>
       <c r="M38" t="n">
-        <v>1171.707067812895</v>
+        <v>1171.707067812894</v>
       </c>
       <c r="N38" t="n">
-        <v>1514.87811225076</v>
+        <v>1514.878112250759</v>
       </c>
       <c r="O38" t="n">
         <v>1838.924798328298</v>
       </c>
       <c r="P38" t="n">
-        <v>2115.491147810431</v>
+        <v>2115.49114781043</v>
       </c>
       <c r="Q38" t="n">
-        <v>2323.180958383277</v>
+        <v>2323.180958383276</v>
       </c>
       <c r="R38" t="n">
-        <v>2443.992571291072</v>
+        <v>2443.992571291071</v>
       </c>
       <c r="S38" t="n">
-        <v>2443.992571291072</v>
+        <v>2443.992571291071</v>
       </c>
       <c r="T38" t="n">
-        <v>2443.992571291072</v>
+        <v>2232.51532988022</v>
       </c>
       <c r="U38" t="n">
-        <v>2443.992571291072</v>
+        <v>2232.51532988022</v>
       </c>
       <c r="V38" t="n">
-        <v>2081.375621224899</v>
+        <v>1869.898379814047</v>
       </c>
       <c r="W38" t="n">
-        <v>1676.520166635932</v>
+        <v>1465.04292522508</v>
       </c>
       <c r="X38" t="n">
-        <v>1257.377703215242</v>
+        <v>1045.90046180439</v>
       </c>
       <c r="Y38" t="n">
-        <v>849.0915795148959</v>
+        <v>637.6143381040439</v>
       </c>
     </row>
     <row r="39">
@@ -7232,7 +7232,7 @@
         <v>543.8616041950426</v>
       </c>
       <c r="C39" t="n">
-        <v>437.4051430316849</v>
+        <v>437.4051430316848</v>
       </c>
       <c r="D39" t="n">
         <v>342.3148541782381</v>
@@ -7244,37 +7244,37 @@
         <v>164.8106011213534</v>
       </c>
       <c r="G39" t="n">
-        <v>80.47543658368232</v>
+        <v>80.4754365836823</v>
       </c>
       <c r="H39" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582141</v>
       </c>
       <c r="I39" t="n">
-        <v>84.30923179960392</v>
+        <v>48.87985142582141</v>
       </c>
       <c r="J39" t="n">
-        <v>181.5301595233808</v>
+        <v>146.1007791495983</v>
       </c>
       <c r="K39" t="n">
-        <v>347.6962101248521</v>
+        <v>288.7508436324151</v>
       </c>
       <c r="L39" t="n">
-        <v>571.1269713228269</v>
+        <v>512.1816048303897</v>
       </c>
       <c r="M39" t="n">
-        <v>831.8601310926884</v>
+        <v>772.9147646002513</v>
       </c>
       <c r="N39" t="n">
-        <v>1099.494121765928</v>
+        <v>1040.54875527349</v>
       </c>
       <c r="O39" t="n">
-        <v>1344.326936687785</v>
+        <v>1285.381570195347</v>
       </c>
       <c r="P39" t="n">
-        <v>1540.826855504822</v>
+        <v>1481.881489012384</v>
       </c>
       <c r="Q39" t="n">
-        <v>1672.181847402728</v>
+        <v>1613.236480910291</v>
       </c>
       <c r="R39" t="n">
         <v>1677.126711301534</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.7846135285804</v>
+        <v>794.8069463126241</v>
       </c>
       <c r="C40" t="n">
-        <v>561.2229020118053</v>
+        <v>622.245234795849</v>
       </c>
       <c r="D40" t="n">
-        <v>395.344909213328</v>
+        <v>622.245234795849</v>
       </c>
       <c r="E40" t="n">
-        <v>225.5869054640652</v>
+        <v>452.4872310465863</v>
       </c>
       <c r="F40" t="n">
-        <v>48.87985142582144</v>
+        <v>275.7801770083425</v>
       </c>
       <c r="G40" t="n">
-        <v>48.87985142582144</v>
+        <v>111.069124049345</v>
       </c>
       <c r="H40" t="n">
-        <v>48.87985142582144</v>
+        <v>111.069124049345</v>
       </c>
       <c r="I40" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582141</v>
       </c>
       <c r="J40" t="n">
-        <v>196.4528223035573</v>
+        <v>109.8731371388673</v>
       </c>
       <c r="K40" t="n">
-        <v>410.7509103331976</v>
+        <v>210.1038419624146</v>
       </c>
       <c r="L40" t="n">
-        <v>539.0117042834553</v>
+        <v>539.011704283454</v>
       </c>
       <c r="M40" t="n">
-        <v>1133.728595194605</v>
+        <v>1133.728595194604</v>
       </c>
       <c r="N40" t="n">
-        <v>1708.004883038852</v>
+        <v>1708.00488303885</v>
       </c>
       <c r="O40" t="n">
-        <v>2249.613647021794</v>
+        <v>2249.613647021793</v>
       </c>
       <c r="P40" t="n">
-        <v>2353.95396759867</v>
+        <v>2353.953967598668</v>
       </c>
       <c r="Q40" t="n">
-        <v>2426.193797186283</v>
+        <v>2426.193797186281</v>
       </c>
       <c r="R40" t="n">
-        <v>2443.992571291072</v>
+        <v>2443.992571291071</v>
       </c>
       <c r="S40" t="n">
-        <v>2443.992571291072</v>
+        <v>2300.091071708068</v>
       </c>
       <c r="T40" t="n">
-        <v>2201.87407347982</v>
+        <v>2057.972573896815</v>
       </c>
       <c r="U40" t="n">
-        <v>1957.396570143325</v>
+        <v>1779.587585259839</v>
       </c>
       <c r="V40" t="n">
-        <v>1670.441062013755</v>
+        <v>1492.63207713027</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.414657600047</v>
+        <v>1220.605672716561</v>
       </c>
       <c r="X40" t="n">
-        <v>1153.022902933459</v>
+        <v>975.2139180499739</v>
       </c>
       <c r="Y40" t="n">
-        <v>925.6032322475676</v>
+        <v>794.8069463126241</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>717.3490876320474</v>
+        <v>717.3490876320473</v>
       </c>
       <c r="C41" t="n">
-        <v>717.3490876320474</v>
+        <v>717.3490876320473</v>
       </c>
       <c r="D41" t="n">
-        <v>717.3490876320474</v>
+        <v>717.3490876320473</v>
       </c>
       <c r="E41" t="n">
-        <v>717.3490876320474</v>
+        <v>717.3490876320473</v>
       </c>
       <c r="F41" t="n">
-        <v>717.3490876320474</v>
+        <v>717.3490876320473</v>
       </c>
       <c r="G41" t="n">
         <v>317.9135602452851</v>
       </c>
       <c r="H41" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582143</v>
       </c>
       <c r="I41" t="n">
-        <v>122.6176114159378</v>
+        <v>122.617611415938</v>
       </c>
       <c r="J41" t="n">
-        <v>285.8514025294304</v>
+        <v>285.8514025294306</v>
       </c>
       <c r="K41" t="n">
         <v>530.4965414133954</v>
       </c>
       <c r="L41" t="n">
-        <v>834.0004692019342</v>
+        <v>834.0004692019339</v>
       </c>
       <c r="M41" t="n">
         <v>1171.707067812895</v>
       </c>
       <c r="N41" t="n">
-        <v>1514.878112250761</v>
+        <v>1514.87811225076</v>
       </c>
       <c r="O41" t="n">
-        <v>1838.924798328299</v>
+        <v>1838.924798328298</v>
       </c>
       <c r="P41" t="n">
-        <v>2115.491147810431</v>
+        <v>2115.49114781043</v>
       </c>
       <c r="Q41" t="n">
-        <v>2323.180958383278</v>
+        <v>2323.180958383277</v>
       </c>
       <c r="R41" t="n">
-        <v>2443.992571291073</v>
+        <v>2443.992571291071</v>
       </c>
       <c r="S41" t="n">
-        <v>2443.992571291073</v>
+        <v>2443.992571291071</v>
       </c>
       <c r="T41" t="n">
-        <v>2232.515329880222</v>
+        <v>2232.515329880221</v>
       </c>
       <c r="U41" t="n">
-        <v>1973.450011516437</v>
+        <v>2232.515329880221</v>
       </c>
       <c r="V41" t="n">
-        <v>1610.833061450263</v>
+        <v>1869.898379814047</v>
       </c>
       <c r="W41" t="n">
-        <v>1205.977606861297</v>
+        <v>1544.777674753083</v>
       </c>
       <c r="X41" t="n">
         <v>1125.635211332394</v>
       </c>
       <c r="Y41" t="n">
-        <v>717.3490876320474</v>
+        <v>717.3490876320473</v>
       </c>
     </row>
     <row r="42">
@@ -7481,25 +7481,25 @@
         <v>164.8106011213534</v>
       </c>
       <c r="G42" t="n">
-        <v>80.47543658368234</v>
+        <v>80.47543658368231</v>
       </c>
       <c r="H42" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582143</v>
       </c>
       <c r="I42" t="n">
-        <v>84.30923179960394</v>
+        <v>84.30923179960388</v>
       </c>
       <c r="J42" t="n">
-        <v>122.5847930309432</v>
+        <v>181.5301595233807</v>
       </c>
       <c r="K42" t="n">
-        <v>288.7508436324146</v>
+        <v>288.7508436324151</v>
       </c>
       <c r="L42" t="n">
-        <v>512.1816048303893</v>
+        <v>512.1816048303897</v>
       </c>
       <c r="M42" t="n">
-        <v>772.9147646002509</v>
+        <v>772.9147646002513</v>
       </c>
       <c r="N42" t="n">
         <v>1040.54875527349</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>555.9756286450968</v>
+        <v>853.864812842224</v>
       </c>
       <c r="C43" t="n">
-        <v>383.4139171283217</v>
+        <v>681.3031013254489</v>
       </c>
       <c r="D43" t="n">
-        <v>217.5359243298444</v>
+        <v>515.4251085269716</v>
       </c>
       <c r="E43" t="n">
-        <v>217.5359243298444</v>
+        <v>345.6671047777088</v>
       </c>
       <c r="F43" t="n">
-        <v>48.87985142582146</v>
+        <v>345.6671047777088</v>
       </c>
       <c r="G43" t="n">
-        <v>48.87985142582146</v>
+        <v>180.9560518187113</v>
       </c>
       <c r="H43" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582143</v>
       </c>
       <c r="I43" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582143</v>
       </c>
       <c r="J43" t="n">
-        <v>196.4528223035573</v>
+        <v>196.4528223035572</v>
       </c>
       <c r="K43" t="n">
-        <v>571.4419816982402</v>
+        <v>296.6835271271045</v>
       </c>
       <c r="L43" t="n">
-        <v>1117.912657416459</v>
+        <v>424.9443210773622</v>
       </c>
       <c r="M43" t="n">
-        <v>1253.145681146696</v>
+        <v>965.5358203302719</v>
       </c>
       <c r="N43" t="n">
-        <v>1385.163165833298</v>
+        <v>1539.812108174518</v>
       </c>
       <c r="O43" t="n">
-        <v>1733.91397818712</v>
+        <v>2081.420872157461</v>
       </c>
       <c r="P43" t="n">
-        <v>2185.761192734338</v>
+        <v>2185.761192734336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2426.193797186283</v>
+        <v>2426.193797186282</v>
       </c>
       <c r="R43" t="n">
-        <v>2443.992571291073</v>
+        <v>2443.992571291071</v>
       </c>
       <c r="S43" t="n">
-        <v>2300.09107170807</v>
+        <v>2300.091071708068</v>
       </c>
       <c r="T43" t="n">
-        <v>2057.972573896817</v>
+        <v>2057.972573896816</v>
       </c>
       <c r="U43" t="n">
-        <v>1779.587585259841</v>
+        <v>1779.58758525984</v>
       </c>
       <c r="V43" t="n">
-        <v>1492.632077130272</v>
+        <v>1492.63207713027</v>
       </c>
       <c r="W43" t="n">
-        <v>1220.605672716563</v>
+        <v>1326.676238194703</v>
       </c>
       <c r="X43" t="n">
-        <v>975.2139180499757</v>
+        <v>1081.284483528116</v>
       </c>
       <c r="Y43" t="n">
-        <v>747.794247364084</v>
+        <v>853.864812842224</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2019.268774864972</v>
+        <v>876.1828084033759</v>
       </c>
       <c r="C44" t="n">
-        <v>1581.126302048395</v>
+        <v>876.1828084033759</v>
       </c>
       <c r="D44" t="n">
-        <v>1145.21651722284</v>
+        <v>876.1828084033759</v>
       </c>
       <c r="E44" t="n">
-        <v>1145.21651722284</v>
+        <v>876.1828084033759</v>
       </c>
       <c r="F44" t="n">
-        <v>717.3490876320474</v>
+        <v>448.3153788125837</v>
       </c>
       <c r="G44" t="n">
-        <v>317.9135602452851</v>
+        <v>48.87985142582143</v>
       </c>
       <c r="H44" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582143</v>
       </c>
       <c r="I44" t="n">
         <v>122.6176114159378</v>
@@ -7651,49 +7651,49 @@
         <v>285.8514025294307</v>
       </c>
       <c r="K44" t="n">
-        <v>530.4965414133957</v>
+        <v>530.4965414133956</v>
       </c>
       <c r="L44" t="n">
-        <v>834.0004692019343</v>
+        <v>834.000469201934</v>
       </c>
       <c r="M44" t="n">
-        <v>1171.707067812896</v>
+        <v>1171.707067812895</v>
       </c>
       <c r="N44" t="n">
-        <v>1514.878112250761</v>
+        <v>1514.87811225076</v>
       </c>
       <c r="O44" t="n">
-        <v>1838.924798328299</v>
+        <v>1838.924798328298</v>
       </c>
       <c r="P44" t="n">
-        <v>2115.491147810431</v>
+        <v>2115.49114781043</v>
       </c>
       <c r="Q44" t="n">
-        <v>2323.180958383278</v>
+        <v>2323.180958383277</v>
       </c>
       <c r="R44" t="n">
-        <v>2443.992571291073</v>
+        <v>2443.992571291071</v>
       </c>
       <c r="S44" t="n">
-        <v>2443.992571291073</v>
+        <v>2405.056699646438</v>
       </c>
       <c r="T44" t="n">
-        <v>2443.992571291073</v>
+        <v>2193.579458235587</v>
       </c>
       <c r="U44" t="n">
-        <v>2184.927252927288</v>
+        <v>1934.514139871802</v>
       </c>
       <c r="V44" t="n">
-        <v>2019.268774864972</v>
+        <v>1934.514139871802</v>
       </c>
       <c r="W44" t="n">
-        <v>2019.268774864972</v>
+        <v>1529.658685282836</v>
       </c>
       <c r="X44" t="n">
-        <v>2019.268774864972</v>
+        <v>1110.516221862146</v>
       </c>
       <c r="Y44" t="n">
-        <v>2019.268774864972</v>
+        <v>1110.516221862146</v>
       </c>
     </row>
     <row r="45">
@@ -7718,37 +7718,37 @@
         <v>164.8106011213534</v>
       </c>
       <c r="G45" t="n">
-        <v>80.47543658368234</v>
+        <v>80.47543658368231</v>
       </c>
       <c r="H45" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582143</v>
       </c>
       <c r="I45" t="n">
-        <v>84.30923179960394</v>
+        <v>84.30923179960388</v>
       </c>
       <c r="J45" t="n">
-        <v>181.5301595233808</v>
+        <v>181.5301595233807</v>
       </c>
       <c r="K45" t="n">
-        <v>347.6962101248521</v>
+        <v>288.7508436324151</v>
       </c>
       <c r="L45" t="n">
-        <v>571.1269713228269</v>
+        <v>512.1816048303897</v>
       </c>
       <c r="M45" t="n">
-        <v>831.8601310926884</v>
+        <v>772.9147646002513</v>
       </c>
       <c r="N45" t="n">
-        <v>1099.494121765928</v>
+        <v>1040.54875527349</v>
       </c>
       <c r="O45" t="n">
-        <v>1344.326936687785</v>
+        <v>1285.381570195347</v>
       </c>
       <c r="P45" t="n">
-        <v>1540.826855504822</v>
+        <v>1481.881489012384</v>
       </c>
       <c r="Q45" t="n">
-        <v>1672.181847402728</v>
+        <v>1613.236480910291</v>
       </c>
       <c r="R45" t="n">
         <v>1677.126711301534</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>783.3952993309886</v>
+        <v>1092.761139503991</v>
       </c>
       <c r="C46" t="n">
-        <v>610.8335878142135</v>
+        <v>920.1994279872162</v>
       </c>
       <c r="D46" t="n">
-        <v>522.3741588159527</v>
+        <v>754.3214351887389</v>
       </c>
       <c r="E46" t="n">
-        <v>522.3741588159527</v>
+        <v>584.5634314394762</v>
       </c>
       <c r="F46" t="n">
-        <v>345.6671047777089</v>
+        <v>407.8563774012324</v>
       </c>
       <c r="G46" t="n">
-        <v>180.9560518187113</v>
+        <v>243.1453244422349</v>
       </c>
       <c r="H46" t="n">
-        <v>48.87985142582146</v>
+        <v>111.069124049345</v>
       </c>
       <c r="I46" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582143</v>
       </c>
       <c r="J46" t="n">
-        <v>196.4528223035573</v>
+        <v>109.8731371388674</v>
       </c>
       <c r="K46" t="n">
-        <v>571.4419816982402</v>
+        <v>210.1038419624146</v>
       </c>
       <c r="L46" t="n">
-        <v>1117.912657416459</v>
+        <v>756.5745176806333</v>
       </c>
       <c r="M46" t="n">
-        <v>1253.145681146696</v>
+        <v>1351.291408591783</v>
       </c>
       <c r="N46" t="n">
-        <v>1385.163165833298</v>
+        <v>1925.56769643603</v>
       </c>
       <c r="O46" t="n">
-        <v>1733.91397818712</v>
+        <v>2047.50721119319</v>
       </c>
       <c r="P46" t="n">
-        <v>2185.761192734338</v>
+        <v>2353.953967598669</v>
       </c>
       <c r="Q46" t="n">
-        <v>2426.193797186283</v>
+        <v>2426.193797186282</v>
       </c>
       <c r="R46" t="n">
-        <v>2443.992571291073</v>
+        <v>2443.992571291071</v>
       </c>
       <c r="S46" t="n">
-        <v>2300.09107170807</v>
+        <v>2300.091071708068</v>
       </c>
       <c r="T46" t="n">
-        <v>2057.972573896817</v>
+        <v>2057.972573896816</v>
       </c>
       <c r="U46" t="n">
-        <v>1779.587585259841</v>
+        <v>2057.972573896816</v>
       </c>
       <c r="V46" t="n">
-        <v>1492.632077130272</v>
+        <v>2029.417587989166</v>
       </c>
       <c r="W46" t="n">
-        <v>1220.605672716563</v>
+        <v>1757.391183575458</v>
       </c>
       <c r="X46" t="n">
-        <v>975.2139180499757</v>
+        <v>1511.99942890887</v>
       </c>
       <c r="Y46" t="n">
-        <v>975.2139180499757</v>
+        <v>1284.579758222978</v>
       </c>
     </row>
   </sheetData>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3.065385582259226</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.900062335631365</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.629143780594134</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.4638205339662758</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,13 +8373,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.923123287322519</v>
+        <v>2.923123287322518</v>
       </c>
       <c r="K7" t="n">
-        <v>2.553887988239082</v>
+        <v>2.704768336622556</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>2.531018111331871</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.681898459715345</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>11.14042390876192</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>36.94091896479665</v>
+        <v>21.75440028723776</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,25 +8610,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.158979282628797</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>34.45295969778793</v>
+        <v>34.45295969778792</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>32.05661388637267</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>32.27675768710763</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1.938835481893832</v>
       </c>
       <c r="Q10" t="n">
         <v>36.36928463638102</v>
@@ -8856,16 +8856,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>81.48308576736599</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9087,13 +9087,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>105.0002374943213</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>69.27619576520578</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>192.4544649334018</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>177.1920849464598</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9795,25 +9795,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>32.78211465297966</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>229.1023208047086</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>226.9656462226922</v>
       </c>
       <c r="O28" t="n">
-        <v>229.1023208047081</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10281,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>82.72778074951066</v>
+        <v>252.6194725316636</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10512,19 +10512,19 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>315.7818601831856</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>204.1479149783872</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10755,10 +10755,10 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
-        <v>299.856914157481</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>299.8569141574799</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10980,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>115.2195789960535</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>202.6738064351331</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645587</v>
@@ -11220,22 +11220,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>409.4530055784576</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>229.1023208047086</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>229.1023208047086</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>204.1479149783863</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22786,13 +22786,13 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>31.69429504076107</v>
+        <v>30.49849916615064</v>
       </c>
       <c r="D5" t="n">
-        <v>28.28813805503963</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>26.17444847102748</v>
+        <v>26.5633443025609</v>
       </c>
       <c r="F5" t="n">
         <v>20.32620637262405</v>
@@ -22846,10 +22846,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>11.68848986422212</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>312.2707960666951</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>225.1478547597109</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -23421,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>187.362022625831</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>119.0568436190431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23503,13 +23503,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>144.101608490805</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>413.7513528879196</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>158.7600173959952</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>62.46433369811443</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.8692533779063</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23734,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>209.3750274596594</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
@@ -23791,16 +23791,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>54.60166686936435</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.91154299085282</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>113.7438090910206</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23971,13 +23971,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>27.91038629020886</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>50.78872637252897</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -24132,7 +24132,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>141.3050688295635</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>107.1269275599058</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>47.50695185963593</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>266.343371731269</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>38.54651292818659</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.3624689967422</v>
@@ -24271,7 +24271,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>148.05399378942</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24372,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>84.26776027262552</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0639424294076</v>
       </c>
       <c r="H25" t="n">
-        <v>16.11920416655954</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>239.69731283314</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6011387506063</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>293.1636883308643</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>266.343371731269</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>38.54651292818659</v>
+        <v>38.54651292818662</v>
       </c>
       <c r="T26" t="n">
         <v>209.3624689967422</v>
@@ -24502,16 +24502,16 @@
         <v>256.4746651801473</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>137.3062174662825</v>
       </c>
     </row>
     <row r="27">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>42.70136111777899</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>130.755438388961</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>7.634389868892356</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>239.69731283314</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>417.5527323397607</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>395.4411721128946</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>266.343371731269</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>38.54651292818659</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.3624689967422</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4746651801473</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>206.2090084195541</v>
       </c>
     </row>
     <row r="30">
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>22.41420254759618</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0639424294076</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>130.755438388961</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>61.56737989728833</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>239.69731283314</v>
       </c>
       <c r="U31" t="n">
-        <v>1.090911536787473</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>164.6536419802376</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>266.343371731269</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>38.54651292818659</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.3624689967422</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4746651801473</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>227.6419053588618</v>
       </c>
     </row>
     <row r="33">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>33.56841044747577</v>
+        <v>33.56841044747713</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>130.755438388961</v>
       </c>
       <c r="I34" t="n">
-        <v>61.56737989728833</v>
+        <v>61.56737989728835</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>412.1870044095796</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>395.4411721128946</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>266.343371731269</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>38.54651292818659</v>
+        <v>38.54651292818662</v>
       </c>
       <c r="T35" t="n">
         <v>209.3624689967422</v>
@@ -25219,10 +25219,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>164.7780158222843</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>33.56841044747753</v>
       </c>
       <c r="E37" t="n">
-        <v>33.56841044747577</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>130.755438388961</v>
       </c>
       <c r="I37" t="n">
-        <v>61.56737989728833</v>
+        <v>61.56737989728835</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25393,19 +25393,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>280.3509036702584</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>26.82031659959523</v>
+        <v>395.4411721128946</v>
       </c>
       <c r="H38" t="n">
         <v>266.343371731269</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>38.54651292818659</v>
+        <v>38.54651292818662</v>
       </c>
       <c r="T38" t="n">
-        <v>209.3624689967422</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.4746651801473</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0639424294076</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>130.755438388961</v>
       </c>
       <c r="I40" t="n">
-        <v>61.56737989728833</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.4624845871731</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>33.56841044747631</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>46.54257195905646</v>
       </c>
     </row>
     <row r="41">
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>38.54651292818659</v>
+        <v>38.54651292818662</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4746651801473</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>78.9374020327225</v>
       </c>
       <c r="X41" t="n">
-        <v>335.4120672128687</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>7.970471322878637</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0639424294076</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>130.755438388961</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>61.56737989728833</v>
+        <v>61.56737989728835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>105.00985982336</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>190.0464954558761</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>266.343371731269</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>38.54651292818659</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.3624689967422</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>194.9888872838192</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>76.64437816221432</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>61.56737989728833</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6011387506063</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>255.8165169997006</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>357864.238539004</v>
+        <v>357864.2385390037</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>357864.2385390038</v>
+        <v>357864.2385390037</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>357864.2385390038</v>
+        <v>357864.2385390037</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>357864.2385390039</v>
+        <v>357864.2385390037</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>357864.2385390039</v>
+        <v>357864.2385390037</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>357864.2385390038</v>
+        <v>357864.2385390037</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>357864.2385390039</v>
+        <v>357864.2385390038</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>357864.2385390039</v>
+        <v>357864.2385390037</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>366369.2430228543</v>
+        <v>366369.2430228541</v>
       </c>
       <c r="C2" t="n">
         <v>367074.7306509145</v>
       </c>
       <c r="D2" t="n">
-        <v>375303.1239232859</v>
+        <v>375303.123923286</v>
       </c>
       <c r="E2" t="n">
         <v>220216.5998211443</v>
       </c>
       <c r="F2" t="n">
-        <v>220216.5998211443</v>
+        <v>220216.5998211444</v>
       </c>
       <c r="G2" t="n">
         <v>220216.5998211443</v>
@@ -26334,28 +26334,28 @@
         <v>220216.5998211443</v>
       </c>
       <c r="I2" t="n">
-        <v>226276.69245683</v>
+        <v>226276.6924568299</v>
       </c>
       <c r="J2" t="n">
-        <v>226276.69245683</v>
+        <v>226276.6924568298</v>
       </c>
       <c r="K2" t="n">
-        <v>226276.69245683</v>
+        <v>226276.6924568298</v>
       </c>
       <c r="L2" t="n">
-        <v>226276.69245683</v>
+        <v>226276.6924568299</v>
       </c>
       <c r="M2" t="n">
-        <v>226276.69245683</v>
+        <v>226276.6924568299</v>
       </c>
       <c r="N2" t="n">
-        <v>226276.69245683</v>
+        <v>226276.6924568298</v>
       </c>
       <c r="O2" t="n">
         <v>226276.6924568299</v>
       </c>
       <c r="P2" t="n">
-        <v>226276.69245683</v>
+        <v>226276.6924568299</v>
       </c>
     </row>
     <row r="3">
@@ -26368,7 +26368,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3478.359671742096</v>
+        <v>3478.359671742095</v>
       </c>
       <c r="D3" t="n">
         <v>37590.3897202509</v>
@@ -26386,13 +26386,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18012.50673044226</v>
+        <v>18012.50673044196</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>839.675691024283</v>
+        <v>839.6756910242827</v>
       </c>
       <c r="L3" t="n">
         <v>9630.733667017968</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
         <v>298377.325830092</v>
       </c>
       <c r="D4" t="n">
-        <v>294577.6699288963</v>
+        <v>294577.6699288964</v>
       </c>
       <c r="E4" t="n">
         <v>18294.04639895362</v>
@@ -26432,34 +26432,34 @@
         <v>18294.04639895361</v>
       </c>
       <c r="G4" t="n">
-        <v>18294.04639895362</v>
+        <v>18294.04639895361</v>
       </c>
       <c r="H4" t="n">
         <v>18294.04639895361</v>
       </c>
       <c r="I4" t="n">
-        <v>18929.7624971481</v>
+        <v>18929.76249714809</v>
       </c>
       <c r="J4" t="n">
         <v>18929.76249714809</v>
       </c>
       <c r="K4" t="n">
-        <v>18929.7624971481</v>
+        <v>18929.76249714809</v>
       </c>
       <c r="L4" t="n">
         <v>18929.7624971481</v>
       </c>
       <c r="M4" t="n">
-        <v>18929.7624971481</v>
+        <v>18929.76249714809</v>
       </c>
       <c r="N4" t="n">
-        <v>18929.7624971481</v>
+        <v>18929.76249714809</v>
       </c>
       <c r="O4" t="n">
-        <v>18929.7624971481</v>
+        <v>18929.76249714809</v>
       </c>
       <c r="P4" t="n">
-        <v>18929.7624971481</v>
+        <v>18929.76249714809</v>
       </c>
     </row>
     <row r="5">
@@ -26490,28 +26490,28 @@
         <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>47683.36020563891</v>
+        <v>47683.36020563889</v>
       </c>
       <c r="J5" t="n">
-        <v>47683.36020563891</v>
+        <v>47683.36020563888</v>
       </c>
       <c r="K5" t="n">
-        <v>47683.36020563891</v>
+        <v>47683.36020563888</v>
       </c>
       <c r="L5" t="n">
-        <v>47683.36020563891</v>
+        <v>47683.36020563889</v>
       </c>
       <c r="M5" t="n">
-        <v>47683.36020563891</v>
+        <v>47683.36020563888</v>
       </c>
       <c r="N5" t="n">
-        <v>47683.36020563891</v>
+        <v>47683.36020563888</v>
       </c>
       <c r="O5" t="n">
-        <v>47683.36020563891</v>
+        <v>47683.36020563889</v>
       </c>
       <c r="P5" t="n">
-        <v>47683.36020563891</v>
+        <v>47683.36020563889</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34010.92671102146</v>
+        <v>33979.01999351972</v>
       </c>
       <c r="C6" t="n">
-        <v>31335.04331523455</v>
+        <v>31305.65619640465</v>
       </c>
       <c r="D6" t="n">
-        <v>6281.49446392859</v>
+        <v>6281.494463928648</v>
       </c>
       <c r="E6" t="n">
-        <v>-356614.0373434288</v>
+        <v>-357167.9177866508</v>
       </c>
       <c r="F6" t="n">
-        <v>155871.4722125529</v>
+        <v>155317.591769331</v>
       </c>
       <c r="G6" t="n">
-        <v>155871.4722125529</v>
+        <v>155317.591769331</v>
       </c>
       <c r="H6" t="n">
-        <v>155871.4722125529</v>
+        <v>155317.591769331</v>
       </c>
       <c r="I6" t="n">
-        <v>141651.0630236007</v>
+        <v>141118.8257683636</v>
       </c>
       <c r="J6" t="n">
-        <v>159663.569754043</v>
+        <v>159131.3324988055</v>
       </c>
       <c r="K6" t="n">
-        <v>158823.8940630187</v>
+        <v>158291.6568077812</v>
       </c>
       <c r="L6" t="n">
-        <v>150032.836087025</v>
+        <v>149500.5988317875</v>
       </c>
       <c r="M6" t="n">
-        <v>22908.66537092761</v>
+        <v>22376.42811569017</v>
       </c>
       <c r="N6" t="n">
-        <v>159663.569754043</v>
+        <v>159131.3324988055</v>
       </c>
       <c r="O6" t="n">
-        <v>159663.5697540429</v>
+        <v>159131.3324988055</v>
       </c>
       <c r="P6" t="n">
-        <v>159663.569754043</v>
+        <v>159131.3324988056</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="D3" t="n">
         <v>32.7531020605716</v>
@@ -26749,7 +26749,7 @@
         <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
         <v>466.7019280932211</v>
@@ -26758,28 +26758,28 @@
         <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
-        <v>483.2418863309455</v>
+        <v>483.2418863309452</v>
       </c>
       <c r="J3" t="n">
-        <v>483.2418863309455</v>
+        <v>483.2418863309452</v>
       </c>
       <c r="K3" t="n">
-        <v>483.2418863309455</v>
+        <v>483.2418863309452</v>
       </c>
       <c r="L3" t="n">
-        <v>483.2418863309455</v>
+        <v>483.2418863309452</v>
       </c>
       <c r="M3" t="n">
-        <v>483.2418863309455</v>
+        <v>483.2418863309452</v>
       </c>
       <c r="N3" t="n">
-        <v>483.2418863309455</v>
+        <v>483.2418863309452</v>
       </c>
       <c r="O3" t="n">
-        <v>483.2418863309455</v>
+        <v>483.2418863309452</v>
       </c>
       <c r="P3" t="n">
-        <v>483.2418863309455</v>
+        <v>483.2418863309452</v>
       </c>
     </row>
     <row r="4">
@@ -26792,7 +26792,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="D4" t="n">
         <v>41.31500304752735</v>
@@ -26810,28 +26810,28 @@
         <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
-        <v>610.9981428227682</v>
+        <v>610.9981428227678</v>
       </c>
       <c r="J4" t="n">
-        <v>610.998142822768</v>
+        <v>610.9981428227677</v>
       </c>
       <c r="K4" t="n">
-        <v>610.9981428227682</v>
+        <v>610.9981428227677</v>
       </c>
       <c r="L4" t="n">
-        <v>610.9981428227682</v>
+        <v>610.9981428227678</v>
       </c>
       <c r="M4" t="n">
-        <v>610.9981428227682</v>
+        <v>610.9981428227677</v>
       </c>
       <c r="N4" t="n">
-        <v>610.998142822768</v>
+        <v>610.9981428227677</v>
       </c>
       <c r="O4" t="n">
-        <v>610.9981428227682</v>
+        <v>610.9981428227678</v>
       </c>
       <c r="P4" t="n">
-        <v>610.9981428227682</v>
+        <v>610.9981428227678</v>
       </c>
     </row>
   </sheetData>
@@ -26962,7 +26962,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="D3" t="n">
         <v>30.09076906183131</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.53995823772442</v>
+        <v>16.53995823772414</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,7 +27014,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="D4" t="n">
         <v>38.05245412526707</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>20.91624846083403</v>
+        <v>20.91624846083369</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="L4" t="n">
         <v>38.05245412526707</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144067</v>
+        <v>548.7668913144066</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,7 +27260,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="L4" t="n">
         <v>38.05245412526707</v>
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>116.8283131467052</v>
+        <v>117.2172089782387</v>
       </c>
       <c r="C6" t="n">
         <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
-        <v>94.13938596491228</v>
+        <v>90.876837042652</v>
       </c>
       <c r="E6" t="n">
         <v>93.17921052631581</v>
       </c>
       <c r="F6" t="n">
-        <v>82.55</v>
+        <v>79.28745107773972</v>
       </c>
       <c r="G6" t="n">
         <v>84.52551230889576</v>
@@ -27745,22 +27745,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>62.71451543789636</v>
+        <v>59.45196651563608</v>
       </c>
       <c r="T6" t="n">
-        <v>125.9801222172054</v>
+        <v>128.8537753079323</v>
       </c>
       <c r="U6" t="n">
         <v>174.5728047847957</v>
       </c>
       <c r="V6" t="n">
-        <v>193.8637938363604</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W6" t="n">
         <v>183.4695267241379</v>
       </c>
       <c r="X6" t="n">
-        <v>150.0562124812485</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y6" t="n">
         <v>125.2209214285714</v>
@@ -27794,7 +27794,7 @@
         <v>135.1979190266826</v>
       </c>
       <c r="I7" t="n">
-        <v>87.62897272389382</v>
+        <v>84.36642380163354</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>20.98777588476758</v>
+        <v>17.72522696250731</v>
       </c>
       <c r="S7" t="n">
         <v>157.5652879271376</v>
@@ -27836,13 +27836,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>266.0435914473111</v>
+        <v>266.4324872788445</v>
       </c>
       <c r="X7" t="n">
-        <v>239.6752881976614</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.2718208883059</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27934,22 +27934,22 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>105.3918965517241</v>
+        <v>69.00164186746204</v>
       </c>
       <c r="D9" t="n">
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>51.86420747878847</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>45.48263858358116</v>
+        <v>41.23499695247265</v>
       </c>
       <c r="G9" t="n">
         <v>43.14578572036749</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>61.51230405132225</v>
+        <v>20.19730100379491</v>
       </c>
       <c r="T9" t="n">
         <v>128.5928940176698</v>
@@ -28013,19 +28013,19 @@
         <v>148.5854294842699</v>
       </c>
       <c r="C10" t="n">
-        <v>129.52109135408</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E10" t="n">
-        <v>126.7454206642428</v>
+        <v>150.2181261617868</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>133.624980450334</v>
       </c>
       <c r="G10" t="n">
-        <v>127.4860445692396</v>
+        <v>163.8762992535017</v>
       </c>
       <c r="H10" t="n">
         <v>137.9780290613614</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18.54795713427877</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>156.6196485125224</v>
@@ -31284,10 +31284,10 @@
         <v>0.1096105239129608</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313975</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817443</v>
       </c>
       <c r="K5" t="n">
         <v>1.361442175632203</v>
@@ -31296,10 +31296,10 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M5" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N5" t="n">
-        <v>1.909735609237095</v>
+        <v>1.909735609237094</v>
       </c>
       <c r="O5" t="n">
         <v>1.803309182076396</v>
@@ -31311,16 +31311,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497281</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471608</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873292</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.0057265275821961</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05530620059647288</v>
+        <v>0.05530620059647287</v>
       </c>
       <c r="I6" t="n">
         <v>0.19716334000105</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5410312747723081</v>
+        <v>0.5410312747723079</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794465</v>
       </c>
       <c r="L6" t="n">
         <v>1.243384859458851</v>
@@ -31387,19 +31387,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975232</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3555470370770528</v>
+        <v>0.3555470370770527</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T6" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636077</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3394256349377582</v>
+        <v>0.3394256349377581</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819465</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783417</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.7346729732425469</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559683</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449316</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R7" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S7" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.08366708784565799</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02051305753127766</v>
+        <v>0.02051305753127765</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,43 +32071,43 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916782</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32326,7 +32326,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
@@ -32338,7 +32338,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
@@ -32563,7 +32563,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.942680950074151</v>
+        <v>1.94268095007415</v>
       </c>
       <c r="H23" t="n">
-        <v>19.89548127994691</v>
+        <v>19.8954812799469</v>
       </c>
       <c r="I23" t="n">
-        <v>74.8952073277338</v>
+        <v>74.89520732773376</v>
       </c>
       <c r="J23" t="n">
-        <v>164.8826172863562</v>
+        <v>164.8826172863561</v>
       </c>
       <c r="K23" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029949</v>
       </c>
       <c r="L23" t="n">
-        <v>306.5696240288269</v>
+        <v>306.5696240288268</v>
       </c>
       <c r="M23" t="n">
-        <v>341.1177763747081</v>
+        <v>341.1177763747079</v>
       </c>
       <c r="N23" t="n">
-        <v>346.6374186241063</v>
+        <v>346.6374186241061</v>
       </c>
       <c r="O23" t="n">
-        <v>327.3198849268064</v>
+        <v>327.3198849268063</v>
       </c>
       <c r="P23" t="n">
-        <v>279.3599489718508</v>
+        <v>279.3599489718506</v>
       </c>
       <c r="Q23" t="n">
-        <v>209.7876874473202</v>
+        <v>209.7876874473201</v>
       </c>
       <c r="R23" t="n">
-        <v>122.0319322300955</v>
+        <v>122.0319322300954</v>
       </c>
       <c r="S23" t="n">
-        <v>44.26884214981477</v>
+        <v>44.26884214981474</v>
       </c>
       <c r="T23" t="n">
-        <v>8.504085858949603</v>
+        <v>8.504085858949598</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1554144760059321</v>
+        <v>0.155414476005932</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>1.039425944183543</v>
       </c>
       <c r="H24" t="n">
-        <v>10.03866635566738</v>
+        <v>10.03866635566737</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>35.78725290281057</v>
       </c>
       <c r="J24" t="n">
-        <v>98.20295729674433</v>
+        <v>98.20295729674427</v>
       </c>
       <c r="K24" t="n">
-        <v>167.8444955570417</v>
+        <v>167.8444955570416</v>
       </c>
       <c r="L24" t="n">
-        <v>225.6876375737119</v>
+        <v>225.6876375737118</v>
       </c>
       <c r="M24" t="n">
-        <v>263.3668280503653</v>
+        <v>263.3668280503651</v>
       </c>
       <c r="N24" t="n">
-        <v>270.3373643164032</v>
+        <v>210.7965900816184</v>
       </c>
       <c r="O24" t="n">
-        <v>247.3058736584415</v>
+        <v>247.3058736584414</v>
       </c>
       <c r="P24" t="n">
-        <v>198.4847664818558</v>
+        <v>198.4847664818556</v>
       </c>
       <c r="Q24" t="n">
-        <v>108.9282886659103</v>
+        <v>132.6818099978852</v>
       </c>
       <c r="R24" t="n">
-        <v>64.53558625378177</v>
+        <v>64.53558625378173</v>
       </c>
       <c r="S24" t="n">
-        <v>19.30688102463729</v>
+        <v>19.30688102463728</v>
       </c>
       <c r="T24" t="n">
-        <v>4.189615976774895</v>
+        <v>4.189615976774892</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06838328580154893</v>
+        <v>0.06838328580154888</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8714197950230165</v>
+        <v>0.8714197950230159</v>
       </c>
       <c r="H25" t="n">
-        <v>7.747714177568279</v>
+        <v>7.747714177568275</v>
       </c>
       <c r="I25" t="n">
-        <v>26.20596983578308</v>
+        <v>26.20596983578307</v>
       </c>
       <c r="J25" t="n">
-        <v>61.60937950812726</v>
+        <v>61.60937950812723</v>
       </c>
       <c r="K25" t="n">
         <v>101.2431361854013</v>
       </c>
       <c r="L25" t="n">
-        <v>129.5563575255129</v>
+        <v>129.5563575255128</v>
       </c>
       <c r="M25" t="n">
-        <v>136.5990138689261</v>
+        <v>136.599013868926</v>
       </c>
       <c r="N25" t="n">
-        <v>133.3509946329313</v>
+        <v>133.3509946329312</v>
       </c>
       <c r="O25" t="n">
         <v>123.1712270274351</v>
       </c>
       <c r="P25" t="n">
-        <v>105.3942632089655</v>
+        <v>105.3942632089654</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.96952483597278</v>
+        <v>72.96952483597273</v>
       </c>
       <c r="R25" t="n">
-        <v>39.18220278348944</v>
+        <v>39.18220278348942</v>
       </c>
       <c r="S25" t="n">
-        <v>15.1864704278102</v>
+        <v>15.18647042781019</v>
       </c>
       <c r="T25" t="n">
-        <v>3.723339124189251</v>
+        <v>3.723339124189249</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04753198881943731</v>
+        <v>0.04753198881943729</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.942680950074151</v>
+        <v>1.94268095007415</v>
       </c>
       <c r="H26" t="n">
-        <v>19.89548127994691</v>
+        <v>19.8954812799469</v>
       </c>
       <c r="I26" t="n">
-        <v>74.8952073277338</v>
+        <v>74.89520732773376</v>
       </c>
       <c r="J26" t="n">
-        <v>164.8826172863562</v>
+        <v>164.8826172863561</v>
       </c>
       <c r="K26" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029949</v>
       </c>
       <c r="L26" t="n">
-        <v>306.5696240288269</v>
+        <v>306.5696240288268</v>
       </c>
       <c r="M26" t="n">
-        <v>341.1177763747081</v>
+        <v>341.1177763747079</v>
       </c>
       <c r="N26" t="n">
-        <v>346.6374186241063</v>
+        <v>346.6374186241061</v>
       </c>
       <c r="O26" t="n">
-        <v>327.3198849268064</v>
+        <v>327.3198849268063</v>
       </c>
       <c r="P26" t="n">
-        <v>279.3599489718508</v>
+        <v>279.3599489718506</v>
       </c>
       <c r="Q26" t="n">
-        <v>209.7876874473202</v>
+        <v>209.7876874473201</v>
       </c>
       <c r="R26" t="n">
-        <v>122.0319322300955</v>
+        <v>122.0319322300954</v>
       </c>
       <c r="S26" t="n">
-        <v>44.26884214981477</v>
+        <v>44.26884214981474</v>
       </c>
       <c r="T26" t="n">
-        <v>8.504085858949603</v>
+        <v>8.504085858949598</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1554144760059321</v>
+        <v>0.155414476005932</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,46 +33019,46 @@
         <v>1.039425944183543</v>
       </c>
       <c r="H27" t="n">
-        <v>10.03866635566738</v>
+        <v>10.03866635566737</v>
       </c>
       <c r="I27" t="n">
-        <v>35.78725290281059</v>
+        <v>35.78725290281057</v>
       </c>
       <c r="J27" t="n">
-        <v>98.20295729674433</v>
+        <v>38.66218306195964</v>
       </c>
       <c r="K27" t="n">
-        <v>167.8444955570417</v>
+        <v>167.8444955570416</v>
       </c>
       <c r="L27" t="n">
-        <v>225.6876375737119</v>
+        <v>225.6876375737118</v>
       </c>
       <c r="M27" t="n">
-        <v>263.3668280503653</v>
+        <v>263.3668280503651</v>
       </c>
       <c r="N27" t="n">
-        <v>270.3373643164032</v>
+        <v>270.3373643164031</v>
       </c>
       <c r="O27" t="n">
-        <v>247.3058736584415</v>
+        <v>247.3058736584414</v>
       </c>
       <c r="P27" t="n">
-        <v>138.9439922470704</v>
+        <v>198.4847664818556</v>
       </c>
       <c r="Q27" t="n">
-        <v>132.6818099978853</v>
+        <v>132.6818099978852</v>
       </c>
       <c r="R27" t="n">
-        <v>64.53558625378177</v>
+        <v>64.53558625378173</v>
       </c>
       <c r="S27" t="n">
-        <v>19.30688102463729</v>
+        <v>19.30688102463728</v>
       </c>
       <c r="T27" t="n">
-        <v>4.189615976774895</v>
+        <v>4.189615976774892</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06838328580154893</v>
+        <v>0.06838328580154888</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8714197950230165</v>
+        <v>0.8714197950230159</v>
       </c>
       <c r="H28" t="n">
-        <v>7.747714177568279</v>
+        <v>7.747714177568275</v>
       </c>
       <c r="I28" t="n">
-        <v>26.20596983578308</v>
+        <v>26.20596983578307</v>
       </c>
       <c r="J28" t="n">
-        <v>61.60937950812726</v>
+        <v>61.60937950812723</v>
       </c>
       <c r="K28" t="n">
         <v>101.2431361854013</v>
       </c>
       <c r="L28" t="n">
-        <v>129.5563575255129</v>
+        <v>129.5563575255128</v>
       </c>
       <c r="M28" t="n">
-        <v>136.5990138689261</v>
+        <v>136.599013868926</v>
       </c>
       <c r="N28" t="n">
-        <v>133.3509946329313</v>
+        <v>133.3509946329312</v>
       </c>
       <c r="O28" t="n">
         <v>123.1712270274351</v>
       </c>
       <c r="P28" t="n">
-        <v>105.3942632089655</v>
+        <v>105.3942632089654</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.96952483597278</v>
+        <v>72.96952483597273</v>
       </c>
       <c r="R28" t="n">
-        <v>39.18220278348944</v>
+        <v>39.18220278348942</v>
       </c>
       <c r="S28" t="n">
-        <v>15.1864704278102</v>
+        <v>15.18647042781019</v>
       </c>
       <c r="T28" t="n">
-        <v>3.723339124189251</v>
+        <v>3.723339124189249</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04753198881943731</v>
+        <v>0.04753198881943729</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.942680950074151</v>
+        <v>1.94268095007415</v>
       </c>
       <c r="H29" t="n">
-        <v>19.89548127994691</v>
+        <v>19.8954812799469</v>
       </c>
       <c r="I29" t="n">
-        <v>74.8952073277338</v>
+        <v>74.89520732773376</v>
       </c>
       <c r="J29" t="n">
-        <v>164.8826172863562</v>
+        <v>164.8826172863561</v>
       </c>
       <c r="K29" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029949</v>
       </c>
       <c r="L29" t="n">
-        <v>306.5696240288269</v>
+        <v>306.5696240288268</v>
       </c>
       <c r="M29" t="n">
-        <v>341.1177763747081</v>
+        <v>341.1177763747079</v>
       </c>
       <c r="N29" t="n">
-        <v>346.6374186241063</v>
+        <v>346.6374186241061</v>
       </c>
       <c r="O29" t="n">
-        <v>327.3198849268064</v>
+        <v>327.3198849268063</v>
       </c>
       <c r="P29" t="n">
-        <v>279.3599489718508</v>
+        <v>279.3599489718506</v>
       </c>
       <c r="Q29" t="n">
-        <v>209.7876874473202</v>
+        <v>209.7876874473201</v>
       </c>
       <c r="R29" t="n">
-        <v>122.0319322300955</v>
+        <v>122.0319322300954</v>
       </c>
       <c r="S29" t="n">
-        <v>44.26884214981477</v>
+        <v>44.26884214981474</v>
       </c>
       <c r="T29" t="n">
-        <v>8.504085858949603</v>
+        <v>8.504085858949598</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1554144760059321</v>
+        <v>0.155414476005932</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,46 +33256,46 @@
         <v>1.039425944183543</v>
       </c>
       <c r="H30" t="n">
-        <v>10.03866635566738</v>
+        <v>10.03866635566737</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>98.20295729674433</v>
+        <v>74.44943596477022</v>
       </c>
       <c r="K30" t="n">
-        <v>167.8444955570417</v>
+        <v>167.8444955570416</v>
       </c>
       <c r="L30" t="n">
-        <v>201.934116241737</v>
+        <v>225.6876375737118</v>
       </c>
       <c r="M30" t="n">
-        <v>263.3668280503653</v>
+        <v>263.3668280503651</v>
       </c>
       <c r="N30" t="n">
-        <v>270.3373643164032</v>
+        <v>270.3373643164031</v>
       </c>
       <c r="O30" t="n">
-        <v>247.3058736584415</v>
+        <v>247.3058736584414</v>
       </c>
       <c r="P30" t="n">
-        <v>198.4847664818558</v>
+        <v>198.4847664818556</v>
       </c>
       <c r="Q30" t="n">
-        <v>132.6818099978853</v>
+        <v>132.6818099978852</v>
       </c>
       <c r="R30" t="n">
-        <v>64.53558625378177</v>
+        <v>64.53558625378173</v>
       </c>
       <c r="S30" t="n">
-        <v>19.30688102463729</v>
+        <v>19.30688102463728</v>
       </c>
       <c r="T30" t="n">
-        <v>4.189615976774895</v>
+        <v>4.189615976774892</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06838328580154893</v>
+        <v>0.06838328580154888</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8714197950230165</v>
+        <v>0.8714197950230159</v>
       </c>
       <c r="H31" t="n">
-        <v>7.747714177568279</v>
+        <v>7.747714177568275</v>
       </c>
       <c r="I31" t="n">
-        <v>26.20596983578308</v>
+        <v>26.20596983578307</v>
       </c>
       <c r="J31" t="n">
-        <v>61.60937950812726</v>
+        <v>61.60937950812723</v>
       </c>
       <c r="K31" t="n">
         <v>101.2431361854013</v>
       </c>
       <c r="L31" t="n">
-        <v>129.5563575255129</v>
+        <v>129.5563575255128</v>
       </c>
       <c r="M31" t="n">
-        <v>136.5990138689261</v>
+        <v>136.599013868926</v>
       </c>
       <c r="N31" t="n">
-        <v>133.3509946329313</v>
+        <v>133.3509946329312</v>
       </c>
       <c r="O31" t="n">
         <v>123.1712270274351</v>
       </c>
       <c r="P31" t="n">
-        <v>105.3942632089655</v>
+        <v>105.3942632089654</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.96952483597278</v>
+        <v>72.96952483597273</v>
       </c>
       <c r="R31" t="n">
-        <v>39.18220278348944</v>
+        <v>39.18220278348942</v>
       </c>
       <c r="S31" t="n">
-        <v>15.1864704278102</v>
+        <v>15.18647042781019</v>
       </c>
       <c r="T31" t="n">
-        <v>3.723339124189251</v>
+        <v>3.723339124189249</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04753198881943731</v>
+        <v>0.04753198881943729</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.942680950074151</v>
+        <v>1.94268095007415</v>
       </c>
       <c r="H32" t="n">
-        <v>19.89548127994691</v>
+        <v>19.8954812799469</v>
       </c>
       <c r="I32" t="n">
-        <v>74.8952073277338</v>
+        <v>74.89520732773376</v>
       </c>
       <c r="J32" t="n">
-        <v>164.8826172863562</v>
+        <v>164.8826172863561</v>
       </c>
       <c r="K32" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029949</v>
       </c>
       <c r="L32" t="n">
-        <v>306.5696240288269</v>
+        <v>306.5696240288268</v>
       </c>
       <c r="M32" t="n">
-        <v>341.1177763747081</v>
+        <v>341.1177763747079</v>
       </c>
       <c r="N32" t="n">
-        <v>346.6374186241063</v>
+        <v>346.6374186241061</v>
       </c>
       <c r="O32" t="n">
-        <v>327.3198849268064</v>
+        <v>327.3198849268063</v>
       </c>
       <c r="P32" t="n">
-        <v>279.3599489718508</v>
+        <v>279.3599489718506</v>
       </c>
       <c r="Q32" t="n">
-        <v>209.7876874473202</v>
+        <v>209.7876874473201</v>
       </c>
       <c r="R32" t="n">
-        <v>122.0319322300955</v>
+        <v>122.0319322300954</v>
       </c>
       <c r="S32" t="n">
-        <v>44.26884214981477</v>
+        <v>44.26884214981474</v>
       </c>
       <c r="T32" t="n">
-        <v>8.504085858949603</v>
+        <v>8.504085858949598</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1554144760059321</v>
+        <v>0.155414476005932</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,46 +33493,46 @@
         <v>1.039425944183543</v>
       </c>
       <c r="H33" t="n">
-        <v>10.03866635566738</v>
+        <v>10.03866635566737</v>
       </c>
       <c r="I33" t="n">
-        <v>35.78725290281059</v>
+        <v>35.78725290281057</v>
       </c>
       <c r="J33" t="n">
-        <v>98.20295729674433</v>
+        <v>38.66218306195964</v>
       </c>
       <c r="K33" t="n">
-        <v>167.8444955570417</v>
+        <v>167.8444955570416</v>
       </c>
       <c r="L33" t="n">
-        <v>166.1468633389264</v>
+        <v>225.6876375737118</v>
       </c>
       <c r="M33" t="n">
-        <v>263.3668280503653</v>
+        <v>263.3668280503651</v>
       </c>
       <c r="N33" t="n">
-        <v>270.3373643164032</v>
+        <v>270.3373643164031</v>
       </c>
       <c r="O33" t="n">
-        <v>247.3058736584415</v>
+        <v>247.3058736584414</v>
       </c>
       <c r="P33" t="n">
-        <v>198.4847664818558</v>
+        <v>198.4847664818556</v>
       </c>
       <c r="Q33" t="n">
-        <v>132.6818099978853</v>
+        <v>132.6818099978852</v>
       </c>
       <c r="R33" t="n">
-        <v>64.53558625378177</v>
+        <v>64.53558625378173</v>
       </c>
       <c r="S33" t="n">
-        <v>19.30688102463729</v>
+        <v>19.30688102463728</v>
       </c>
       <c r="T33" t="n">
-        <v>4.189615976774895</v>
+        <v>4.189615976774892</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06838328580154893</v>
+        <v>0.06838328580154888</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8714197950230165</v>
+        <v>0.8714197950230159</v>
       </c>
       <c r="H34" t="n">
-        <v>7.747714177568279</v>
+        <v>7.747714177568275</v>
       </c>
       <c r="I34" t="n">
-        <v>26.20596983578308</v>
+        <v>26.20596983578307</v>
       </c>
       <c r="J34" t="n">
-        <v>61.60937950812726</v>
+        <v>61.60937950812723</v>
       </c>
       <c r="K34" t="n">
         <v>101.2431361854013</v>
       </c>
       <c r="L34" t="n">
-        <v>129.5563575255129</v>
+        <v>129.5563575255128</v>
       </c>
       <c r="M34" t="n">
-        <v>136.5990138689261</v>
+        <v>136.599013868926</v>
       </c>
       <c r="N34" t="n">
-        <v>133.3509946329313</v>
+        <v>133.3509946329312</v>
       </c>
       <c r="O34" t="n">
         <v>123.1712270274351</v>
       </c>
       <c r="P34" t="n">
-        <v>105.3942632089655</v>
+        <v>105.3942632089654</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.96952483597278</v>
+        <v>72.96952483597273</v>
       </c>
       <c r="R34" t="n">
-        <v>39.18220278348944</v>
+        <v>39.18220278348942</v>
       </c>
       <c r="S34" t="n">
-        <v>15.1864704278102</v>
+        <v>15.18647042781019</v>
       </c>
       <c r="T34" t="n">
-        <v>3.723339124189251</v>
+        <v>3.723339124189249</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04753198881943731</v>
+        <v>0.04753198881943729</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.942680950074151</v>
+        <v>1.94268095007415</v>
       </c>
       <c r="H35" t="n">
-        <v>19.89548127994691</v>
+        <v>19.8954812799469</v>
       </c>
       <c r="I35" t="n">
-        <v>74.8952073277338</v>
+        <v>74.89520732773376</v>
       </c>
       <c r="J35" t="n">
-        <v>164.8826172863562</v>
+        <v>164.8826172863561</v>
       </c>
       <c r="K35" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029949</v>
       </c>
       <c r="L35" t="n">
-        <v>306.5696240288269</v>
+        <v>306.5696240288268</v>
       </c>
       <c r="M35" t="n">
-        <v>341.1177763747081</v>
+        <v>341.1177763747079</v>
       </c>
       <c r="N35" t="n">
-        <v>346.6374186241063</v>
+        <v>346.6374186241061</v>
       </c>
       <c r="O35" t="n">
-        <v>327.3198849268064</v>
+        <v>327.3198849268063</v>
       </c>
       <c r="P35" t="n">
-        <v>279.3599489718508</v>
+        <v>279.3599489718506</v>
       </c>
       <c r="Q35" t="n">
-        <v>209.7876874473202</v>
+        <v>209.7876874473201</v>
       </c>
       <c r="R35" t="n">
-        <v>122.0319322300955</v>
+        <v>122.0319322300954</v>
       </c>
       <c r="S35" t="n">
-        <v>44.26884214981477</v>
+        <v>44.26884214981474</v>
       </c>
       <c r="T35" t="n">
-        <v>8.504085858949603</v>
+        <v>8.504085858949598</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1554144760059321</v>
+        <v>0.155414476005932</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>1.039425944183543</v>
       </c>
       <c r="H36" t="n">
-        <v>10.03866635566738</v>
+        <v>10.03866635566737</v>
       </c>
       <c r="I36" t="n">
-        <v>35.78725290281059</v>
+        <v>35.78725290281057</v>
       </c>
       <c r="J36" t="n">
-        <v>98.20295729674433</v>
+        <v>98.20295729674427</v>
       </c>
       <c r="K36" t="n">
-        <v>167.8444955570417</v>
+        <v>167.8444955570416</v>
       </c>
       <c r="L36" t="n">
-        <v>225.6876375737119</v>
+        <v>225.6876375737118</v>
       </c>
       <c r="M36" t="n">
-        <v>263.3668280503653</v>
+        <v>263.3668280503651</v>
       </c>
       <c r="N36" t="n">
-        <v>270.3373643164032</v>
+        <v>270.3373643164031</v>
       </c>
       <c r="O36" t="n">
-        <v>247.3058736584415</v>
+        <v>247.3058736584414</v>
       </c>
       <c r="P36" t="n">
-        <v>198.4847664818558</v>
+        <v>138.9439922470708</v>
       </c>
       <c r="Q36" t="n">
-        <v>73.14103576309981</v>
+        <v>132.6818099978852</v>
       </c>
       <c r="R36" t="n">
-        <v>64.53558625378177</v>
+        <v>64.53558625378173</v>
       </c>
       <c r="S36" t="n">
-        <v>19.30688102463729</v>
+        <v>19.30688102463728</v>
       </c>
       <c r="T36" t="n">
-        <v>4.189615976774895</v>
+        <v>4.189615976774892</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06838328580154893</v>
+        <v>0.06838328580154888</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8714197950230165</v>
+        <v>0.8714197950230159</v>
       </c>
       <c r="H37" t="n">
-        <v>7.747714177568279</v>
+        <v>7.747714177568275</v>
       </c>
       <c r="I37" t="n">
-        <v>26.20596983578308</v>
+        <v>26.20596983578307</v>
       </c>
       <c r="J37" t="n">
-        <v>61.60937950812726</v>
+        <v>61.60937950812723</v>
       </c>
       <c r="K37" t="n">
         <v>101.2431361854013</v>
       </c>
       <c r="L37" t="n">
-        <v>129.5563575255129</v>
+        <v>129.5563575255128</v>
       </c>
       <c r="M37" t="n">
-        <v>136.5990138689261</v>
+        <v>136.599013868926</v>
       </c>
       <c r="N37" t="n">
-        <v>133.3509946329313</v>
+        <v>133.3509946329312</v>
       </c>
       <c r="O37" t="n">
         <v>123.1712270274351</v>
       </c>
       <c r="P37" t="n">
-        <v>105.3942632089655</v>
+        <v>105.3942632089654</v>
       </c>
       <c r="Q37" t="n">
-        <v>72.96952483597278</v>
+        <v>72.96952483597273</v>
       </c>
       <c r="R37" t="n">
-        <v>39.18220278348944</v>
+        <v>39.18220278348942</v>
       </c>
       <c r="S37" t="n">
-        <v>15.1864704278102</v>
+        <v>15.18647042781019</v>
       </c>
       <c r="T37" t="n">
-        <v>3.723339124189251</v>
+        <v>3.723339124189249</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04753198881943731</v>
+        <v>0.04753198881943729</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.942680950074151</v>
+        <v>1.94268095007415</v>
       </c>
       <c r="H38" t="n">
-        <v>19.89548127994691</v>
+        <v>19.8954812799469</v>
       </c>
       <c r="I38" t="n">
-        <v>74.8952073277338</v>
+        <v>74.89520732773376</v>
       </c>
       <c r="J38" t="n">
-        <v>164.8826172863562</v>
+        <v>164.8826172863561</v>
       </c>
       <c r="K38" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029949</v>
       </c>
       <c r="L38" t="n">
-        <v>306.5696240288269</v>
+        <v>306.5696240288268</v>
       </c>
       <c r="M38" t="n">
-        <v>341.1177763747081</v>
+        <v>341.1177763747079</v>
       </c>
       <c r="N38" t="n">
-        <v>346.6374186241063</v>
+        <v>346.6374186241061</v>
       </c>
       <c r="O38" t="n">
-        <v>327.3198849268064</v>
+        <v>327.3198849268063</v>
       </c>
       <c r="P38" t="n">
-        <v>279.3599489718508</v>
+        <v>279.3599489718506</v>
       </c>
       <c r="Q38" t="n">
-        <v>209.7876874473202</v>
+        <v>209.7876874473201</v>
       </c>
       <c r="R38" t="n">
-        <v>122.0319322300955</v>
+        <v>122.0319322300954</v>
       </c>
       <c r="S38" t="n">
-        <v>44.26884214981477</v>
+        <v>44.26884214981474</v>
       </c>
       <c r="T38" t="n">
-        <v>8.504085858949603</v>
+        <v>8.504085858949598</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1554144760059321</v>
+        <v>0.155414476005932</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>1.039425944183543</v>
       </c>
       <c r="H39" t="n">
-        <v>10.03866635566738</v>
+        <v>10.03866635566737</v>
       </c>
       <c r="I39" t="n">
-        <v>35.78725290281059</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>98.20295729674433</v>
+        <v>98.20295729674427</v>
       </c>
       <c r="K39" t="n">
-        <v>167.8444955570417</v>
+        <v>144.0909742250676</v>
       </c>
       <c r="L39" t="n">
-        <v>225.6876375737119</v>
+        <v>225.6876375737118</v>
       </c>
       <c r="M39" t="n">
-        <v>263.3668280503653</v>
+        <v>263.3668280503651</v>
       </c>
       <c r="N39" t="n">
-        <v>270.3373643164032</v>
+        <v>270.3373643164031</v>
       </c>
       <c r="O39" t="n">
-        <v>247.3058736584415</v>
+        <v>247.3058736584414</v>
       </c>
       <c r="P39" t="n">
-        <v>198.4847664818558</v>
+        <v>198.4847664818556</v>
       </c>
       <c r="Q39" t="n">
-        <v>132.6818099978853</v>
+        <v>132.6818099978852</v>
       </c>
       <c r="R39" t="n">
-        <v>4.994812018996299</v>
+        <v>64.53558625378173</v>
       </c>
       <c r="S39" t="n">
-        <v>19.30688102463729</v>
+        <v>19.30688102463728</v>
       </c>
       <c r="T39" t="n">
-        <v>4.189615976774895</v>
+        <v>4.189615976774892</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06838328580154893</v>
+        <v>0.06838328580154888</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8714197950230165</v>
+        <v>0.8714197950230159</v>
       </c>
       <c r="H40" t="n">
-        <v>7.747714177568279</v>
+        <v>7.747714177568275</v>
       </c>
       <c r="I40" t="n">
-        <v>26.20596983578308</v>
+        <v>26.20596983578307</v>
       </c>
       <c r="J40" t="n">
-        <v>61.60937950812726</v>
+        <v>61.60937950812723</v>
       </c>
       <c r="K40" t="n">
         <v>101.2431361854013</v>
       </c>
       <c r="L40" t="n">
-        <v>129.5563575255129</v>
+        <v>129.5563575255128</v>
       </c>
       <c r="M40" t="n">
-        <v>136.5990138689261</v>
+        <v>136.599013868926</v>
       </c>
       <c r="N40" t="n">
-        <v>133.3509946329313</v>
+        <v>133.3509946329312</v>
       </c>
       <c r="O40" t="n">
         <v>123.1712270274351</v>
       </c>
       <c r="P40" t="n">
-        <v>105.3942632089655</v>
+        <v>105.3942632089654</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.96952483597278</v>
+        <v>72.96952483597273</v>
       </c>
       <c r="R40" t="n">
-        <v>39.18220278348944</v>
+        <v>39.18220278348942</v>
       </c>
       <c r="S40" t="n">
-        <v>15.1864704278102</v>
+        <v>15.18647042781019</v>
       </c>
       <c r="T40" t="n">
-        <v>3.723339124189251</v>
+        <v>3.723339124189249</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04753198881943731</v>
+        <v>0.04753198881943729</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.942680950074151</v>
+        <v>1.94268095007415</v>
       </c>
       <c r="H41" t="n">
-        <v>19.89548127994691</v>
+        <v>19.8954812799469</v>
       </c>
       <c r="I41" t="n">
-        <v>74.8952073277338</v>
+        <v>74.89520732773376</v>
       </c>
       <c r="J41" t="n">
-        <v>164.8826172863562</v>
+        <v>164.8826172863561</v>
       </c>
       <c r="K41" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029949</v>
       </c>
       <c r="L41" t="n">
-        <v>306.5696240288269</v>
+        <v>306.5696240288268</v>
       </c>
       <c r="M41" t="n">
-        <v>341.1177763747081</v>
+        <v>341.1177763747079</v>
       </c>
       <c r="N41" t="n">
-        <v>346.6374186241063</v>
+        <v>346.6374186241061</v>
       </c>
       <c r="O41" t="n">
-        <v>327.3198849268064</v>
+        <v>327.3198849268063</v>
       </c>
       <c r="P41" t="n">
-        <v>279.3599489718508</v>
+        <v>279.3599489718506</v>
       </c>
       <c r="Q41" t="n">
-        <v>209.7876874473202</v>
+        <v>209.7876874473201</v>
       </c>
       <c r="R41" t="n">
-        <v>122.0319322300955</v>
+        <v>122.0319322300954</v>
       </c>
       <c r="S41" t="n">
-        <v>44.26884214981477</v>
+        <v>44.26884214981474</v>
       </c>
       <c r="T41" t="n">
-        <v>8.504085858949603</v>
+        <v>8.504085858949598</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1554144760059321</v>
+        <v>0.155414476005932</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.039425944183543</v>
       </c>
       <c r="H42" t="n">
-        <v>10.03866635566738</v>
+        <v>10.03866635566737</v>
       </c>
       <c r="I42" t="n">
-        <v>35.78725290281059</v>
+        <v>35.78725290281057</v>
       </c>
       <c r="J42" t="n">
-        <v>38.6621830619589</v>
+        <v>98.20295729674427</v>
       </c>
       <c r="K42" t="n">
-        <v>167.8444955570417</v>
+        <v>108.303721322257</v>
       </c>
       <c r="L42" t="n">
-        <v>225.6876375737119</v>
+        <v>225.6876375737118</v>
       </c>
       <c r="M42" t="n">
-        <v>263.3668280503653</v>
+        <v>263.3668280503651</v>
       </c>
       <c r="N42" t="n">
-        <v>270.3373643164032</v>
+        <v>270.3373643164031</v>
       </c>
       <c r="O42" t="n">
-        <v>247.3058736584415</v>
+        <v>247.3058736584414</v>
       </c>
       <c r="P42" t="n">
-        <v>198.4847664818558</v>
+        <v>198.4847664818556</v>
       </c>
       <c r="Q42" t="n">
-        <v>132.6818099978853</v>
+        <v>132.6818099978852</v>
       </c>
       <c r="R42" t="n">
-        <v>64.53558625378177</v>
+        <v>64.53558625378173</v>
       </c>
       <c r="S42" t="n">
-        <v>19.30688102463729</v>
+        <v>19.30688102463728</v>
       </c>
       <c r="T42" t="n">
-        <v>4.189615976774895</v>
+        <v>4.189615976774892</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06838328580154893</v>
+        <v>0.06838328580154888</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8714197950230165</v>
+        <v>0.8714197950230159</v>
       </c>
       <c r="H43" t="n">
-        <v>7.747714177568279</v>
+        <v>7.747714177568275</v>
       </c>
       <c r="I43" t="n">
-        <v>26.20596983578308</v>
+        <v>26.20596983578307</v>
       </c>
       <c r="J43" t="n">
-        <v>61.60937950812726</v>
+        <v>61.60937950812723</v>
       </c>
       <c r="K43" t="n">
         <v>101.2431361854013</v>
       </c>
       <c r="L43" t="n">
-        <v>129.5563575255129</v>
+        <v>129.5563575255128</v>
       </c>
       <c r="M43" t="n">
-        <v>136.5990138689261</v>
+        <v>136.599013868926</v>
       </c>
       <c r="N43" t="n">
-        <v>133.3509946329313</v>
+        <v>133.3509946329312</v>
       </c>
       <c r="O43" t="n">
         <v>123.1712270274351</v>
       </c>
       <c r="P43" t="n">
-        <v>105.3942632089655</v>
+        <v>105.3942632089654</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.96952483597278</v>
+        <v>72.96952483597273</v>
       </c>
       <c r="R43" t="n">
-        <v>39.18220278348944</v>
+        <v>39.18220278348942</v>
       </c>
       <c r="S43" t="n">
-        <v>15.1864704278102</v>
+        <v>15.18647042781019</v>
       </c>
       <c r="T43" t="n">
-        <v>3.723339124189251</v>
+        <v>3.723339124189249</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04753198881943731</v>
+        <v>0.04753198881943729</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.942680950074151</v>
+        <v>1.94268095007415</v>
       </c>
       <c r="H44" t="n">
-        <v>19.89548127994691</v>
+        <v>19.8954812799469</v>
       </c>
       <c r="I44" t="n">
-        <v>74.8952073277338</v>
+        <v>74.89520732773376</v>
       </c>
       <c r="J44" t="n">
-        <v>164.8826172863562</v>
+        <v>164.8826172863561</v>
       </c>
       <c r="K44" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029949</v>
       </c>
       <c r="L44" t="n">
-        <v>306.5696240288269</v>
+        <v>306.5696240288268</v>
       </c>
       <c r="M44" t="n">
-        <v>341.1177763747081</v>
+        <v>341.1177763747079</v>
       </c>
       <c r="N44" t="n">
-        <v>346.6374186241063</v>
+        <v>346.6374186241061</v>
       </c>
       <c r="O44" t="n">
-        <v>327.3198849268064</v>
+        <v>327.3198849268063</v>
       </c>
       <c r="P44" t="n">
-        <v>279.3599489718508</v>
+        <v>279.3599489718506</v>
       </c>
       <c r="Q44" t="n">
-        <v>209.7876874473202</v>
+        <v>209.7876874473201</v>
       </c>
       <c r="R44" t="n">
-        <v>122.0319322300955</v>
+        <v>122.0319322300954</v>
       </c>
       <c r="S44" t="n">
-        <v>44.26884214981477</v>
+        <v>44.26884214981474</v>
       </c>
       <c r="T44" t="n">
-        <v>8.504085858949603</v>
+        <v>8.504085858949598</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1554144760059321</v>
+        <v>0.155414476005932</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.039425944183543</v>
       </c>
       <c r="H45" t="n">
-        <v>10.03866635566738</v>
+        <v>10.03866635566737</v>
       </c>
       <c r="I45" t="n">
-        <v>35.78725290281059</v>
+        <v>35.78725290281057</v>
       </c>
       <c r="J45" t="n">
-        <v>98.20295729674433</v>
+        <v>98.20295729674427</v>
       </c>
       <c r="K45" t="n">
-        <v>167.8444955570417</v>
+        <v>108.303721322257</v>
       </c>
       <c r="L45" t="n">
-        <v>225.6876375737119</v>
+        <v>225.6876375737118</v>
       </c>
       <c r="M45" t="n">
-        <v>263.3668280503653</v>
+        <v>263.3668280503651</v>
       </c>
       <c r="N45" t="n">
-        <v>270.3373643164032</v>
+        <v>270.3373643164031</v>
       </c>
       <c r="O45" t="n">
-        <v>247.3058736584415</v>
+        <v>247.3058736584414</v>
       </c>
       <c r="P45" t="n">
-        <v>198.4847664818558</v>
+        <v>198.4847664818556</v>
       </c>
       <c r="Q45" t="n">
-        <v>132.6818099978853</v>
+        <v>132.6818099978852</v>
       </c>
       <c r="R45" t="n">
-        <v>4.994812018996299</v>
+        <v>64.53558625378173</v>
       </c>
       <c r="S45" t="n">
-        <v>19.30688102463729</v>
+        <v>19.30688102463728</v>
       </c>
       <c r="T45" t="n">
-        <v>4.189615976774895</v>
+        <v>4.189615976774892</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06838328580154893</v>
+        <v>0.06838328580154888</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8714197950230165</v>
+        <v>0.8714197950230159</v>
       </c>
       <c r="H46" t="n">
-        <v>7.747714177568279</v>
+        <v>7.747714177568275</v>
       </c>
       <c r="I46" t="n">
-        <v>26.20596983578308</v>
+        <v>26.20596983578307</v>
       </c>
       <c r="J46" t="n">
-        <v>61.60937950812726</v>
+        <v>61.60937950812723</v>
       </c>
       <c r="K46" t="n">
         <v>101.2431361854013</v>
       </c>
       <c r="L46" t="n">
-        <v>129.5563575255129</v>
+        <v>129.5563575255128</v>
       </c>
       <c r="M46" t="n">
-        <v>136.5990138689261</v>
+        <v>136.599013868926</v>
       </c>
       <c r="N46" t="n">
-        <v>133.3509946329313</v>
+        <v>133.3509946329312</v>
       </c>
       <c r="O46" t="n">
         <v>123.1712270274351</v>
       </c>
       <c r="P46" t="n">
-        <v>105.3942632089655</v>
+        <v>105.3942632089654</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.96952483597278</v>
+        <v>72.96952483597273</v>
       </c>
       <c r="R46" t="n">
-        <v>39.18220278348944</v>
+        <v>39.18220278348942</v>
       </c>
       <c r="S46" t="n">
-        <v>15.1864704278102</v>
+        <v>15.18647042781019</v>
       </c>
       <c r="T46" t="n">
-        <v>3.723339124189251</v>
+        <v>3.723339124189249</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04753198881943731</v>
+        <v>0.04753198881943729</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817464</v>
       </c>
       <c r="K5" t="n">
         <v>1.361442175632203</v>
       </c>
       <c r="L5" t="n">
-        <v>1.688989405823956</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M5" t="n">
         <v>1.879326147397212</v>
@@ -34950,16 +34950,16 @@
         <v>1.909735609237094</v>
       </c>
       <c r="O5" t="n">
-        <v>1.803309182076397</v>
+        <v>1.803309182076395</v>
       </c>
       <c r="P5" t="n">
-        <v>1.53908266586976</v>
+        <v>1.539082665869758</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.155786985397853</v>
+        <v>1.155786985397851</v>
       </c>
       <c r="R5" t="n">
-        <v>0.672312664249727</v>
+        <v>0.6723126642497288</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.19716334000105</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5410312747723081</v>
+        <v>0.5410312747723078</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9247086227794468</v>
+        <v>0.9247086227794465</v>
       </c>
       <c r="L6" t="n">
         <v>1.243384859458851</v>
@@ -35026,19 +35026,19 @@
         <v>1.450971484313459</v>
       </c>
       <c r="N6" t="n">
-        <v>1.489374382002836</v>
+        <v>1.489374382002835</v>
       </c>
       <c r="O6" t="n">
-        <v>3.262548922260277</v>
+        <v>1.362486586628911</v>
       </c>
       <c r="P6" t="n">
         <v>1.093515604709008</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.360130003191658</v>
+        <v>0.7309862225975206</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3555470370770522</v>
+        <v>0.8193675710433279</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.262548922260278</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="K7" t="n">
-        <v>3.111668573876802</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7137671124819471</v>
+        <v>3.244785223813818</v>
       </c>
       <c r="M7" t="n">
         <v>0.7525673425783417</v>
@@ -35108,10 +35108,10 @@
         <v>0.7346729732425477</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6785894010559694</v>
+        <v>0.6785894010559677</v>
       </c>
       <c r="P7" t="n">
-        <v>3.262548922260278</v>
+        <v>0.5806504625449325</v>
       </c>
       <c r="Q7" t="n">
         <v>0.4020122828097836</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2.425583501655538</v>
+        <v>28.75252608797635</v>
       </c>
       <c r="J9" t="n">
-        <v>6.655986523460121</v>
+        <v>6.655986523460122</v>
       </c>
       <c r="K9" t="n">
         <v>11.37614111852891</v>
@@ -35269,13 +35269,13 @@
         <v>16.76186346679083</v>
       </c>
       <c r="P9" t="n">
-        <v>13.45287318408647</v>
+        <v>13.45287318408649</v>
       </c>
       <c r="Q9" t="n">
-        <v>20.13331336509094</v>
+        <v>8.99288945632901</v>
       </c>
       <c r="R9" t="n">
-        <v>41.31500304752734</v>
+        <v>26.12848436996845</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>6.334731327301999</v>
+        <v>4.175752044673201</v>
       </c>
       <c r="K10" t="n">
         <v>41.31500304752735</v>
@@ -35339,16 +35339,16 @@
         <v>8.781052968829307</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752735</v>
+        <v>9.258389161154682</v>
       </c>
       <c r="N10" t="n">
-        <v>9.038245360419708</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="O10" t="n">
         <v>8.348282472750284</v>
       </c>
       <c r="P10" t="n">
-        <v>7.143397865800722</v>
+        <v>9.082233347694554</v>
       </c>
       <c r="Q10" t="n">
         <v>41.31500304752734</v>
@@ -35412,10 +35412,10 @@
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
@@ -35424,7 +35424,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
         <v>269.7982739184533</v>
@@ -35576,16 +35576,16 @@
         <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>213.4067143921432</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N13" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
         <v>240.36368292423</v>
@@ -35643,10 +35643,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -35731,7 +35731,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
@@ -35807,13 +35807,13 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
-        <v>202.7781168554911</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L16" t="n">
-        <v>547.556245844706</v>
+        <v>194.3982176018703</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N16" t="n">
         <v>575.5128433954892</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247772</v>
+        <v>324.378093558179</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
-        <v>296.1475206512696</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36120,13 +36120,13 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M20" t="n">
         <v>329.442311281603</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36220,10 +36220,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,22 +36354,22 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>74.4825858486024</v>
+        <v>74.48258584860235</v>
       </c>
       <c r="J23" t="n">
         <v>164.8826172863564</v>
       </c>
       <c r="K23" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029948</v>
       </c>
       <c r="L23" t="n">
-        <v>306.5696240288269</v>
+        <v>306.5696240288266</v>
       </c>
       <c r="M23" t="n">
         <v>341.117776374708</v>
       </c>
       <c r="N23" t="n">
-        <v>346.6374186241064</v>
+        <v>346.637418624106</v>
       </c>
       <c r="O23" t="n">
         <v>327.3198849268065</v>
@@ -36381,7 +36381,7 @@
         <v>209.78768744732</v>
       </c>
       <c r="R23" t="n">
-        <v>122.0319322300957</v>
+        <v>122.0319322300952</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>35.78725290281056</v>
       </c>
       <c r="J24" t="n">
-        <v>98.20295729674433</v>
+        <v>98.20295729674427</v>
       </c>
       <c r="K24" t="n">
-        <v>167.8444955570418</v>
+        <v>167.8444955570416</v>
       </c>
       <c r="L24" t="n">
-        <v>225.6876375737119</v>
+        <v>225.6876375737118</v>
       </c>
       <c r="M24" t="n">
-        <v>263.3668280503653</v>
+        <v>263.3668280503651</v>
       </c>
       <c r="N24" t="n">
-        <v>270.3373643164033</v>
+        <v>210.7965900816184</v>
       </c>
       <c r="O24" t="n">
         <v>247.3058736584414</v>
       </c>
       <c r="P24" t="n">
-        <v>198.4847664818558</v>
+        <v>198.4847664818556</v>
       </c>
       <c r="Q24" t="n">
-        <v>108.9282886659103</v>
+        <v>132.6818099978852</v>
       </c>
       <c r="R24" t="n">
         <v>64.53558625378173</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>149.0636069472079</v>
+        <v>61.60937950812723</v>
       </c>
       <c r="K25" t="n">
-        <v>378.7769286814979</v>
+        <v>101.2431361854013</v>
       </c>
       <c r="L25" t="n">
-        <v>551.9905815335545</v>
+        <v>162.3384721784925</v>
       </c>
       <c r="M25" t="n">
-        <v>136.599013868926</v>
+        <v>600.7241322334846</v>
       </c>
       <c r="N25" t="n">
-        <v>133.3509946329314</v>
+        <v>580.0770584285319</v>
       </c>
       <c r="O25" t="n">
-        <v>352.2735478321438</v>
+        <v>547.0795595787295</v>
       </c>
       <c r="P25" t="n">
-        <v>456.4113278254724</v>
+        <v>105.3942632089656</v>
       </c>
       <c r="Q25" t="n">
         <v>242.8612166181265</v>
       </c>
       <c r="R25" t="n">
-        <v>17.9785597018076</v>
+        <v>17.97855970180758</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,28 +36591,28 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>74.4825858486024</v>
+        <v>74.48258584860235</v>
       </c>
       <c r="J26" t="n">
-        <v>164.8826172863562</v>
+        <v>164.8826172863561</v>
       </c>
       <c r="K26" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029949</v>
       </c>
       <c r="L26" t="n">
-        <v>306.5696240288269</v>
+        <v>306.5696240288268</v>
       </c>
       <c r="M26" t="n">
-        <v>341.1177763747082</v>
+        <v>341.1177763747078</v>
       </c>
       <c r="N26" t="n">
-        <v>346.6374186241062</v>
+        <v>346.637418624106</v>
       </c>
       <c r="O26" t="n">
-        <v>327.3198849268063</v>
+        <v>327.3198849268065</v>
       </c>
       <c r="P26" t="n">
-        <v>279.3599489718508</v>
+        <v>279.3599489718504</v>
       </c>
       <c r="Q26" t="n">
         <v>209.78768744732</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>35.78725290281059</v>
+        <v>35.78725290281058</v>
       </c>
       <c r="J27" t="n">
-        <v>98.20295729674434</v>
+        <v>38.66218306195964</v>
       </c>
       <c r="K27" t="n">
-        <v>167.8444955570417</v>
+        <v>167.8444955570416</v>
       </c>
       <c r="L27" t="n">
-        <v>225.6876375737119</v>
+        <v>225.6876375737118</v>
       </c>
       <c r="M27" t="n">
-        <v>263.3668280503653</v>
+        <v>263.3668280503651</v>
       </c>
       <c r="N27" t="n">
-        <v>270.3373643164032</v>
+        <v>270.3373643164031</v>
       </c>
       <c r="O27" t="n">
         <v>247.3058736584414</v>
       </c>
       <c r="P27" t="n">
-        <v>138.9439922470704</v>
+        <v>198.4847664818556</v>
       </c>
       <c r="Q27" t="n">
         <v>132.6818099978852</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>149.0636069472079</v>
+        <v>61.60937950812722</v>
       </c>
       <c r="K28" t="n">
-        <v>378.7769286814979</v>
+        <v>101.2431361854013</v>
       </c>
       <c r="L28" t="n">
-        <v>551.9905815335545</v>
+        <v>551.9905815335543</v>
       </c>
       <c r="M28" t="n">
-        <v>136.599013868926</v>
+        <v>600.7241322334846</v>
       </c>
       <c r="N28" t="n">
-        <v>133.3509946329314</v>
+        <v>360.3166408556235</v>
       </c>
       <c r="O28" t="n">
-        <v>352.2735478321433</v>
+        <v>547.0795595787295</v>
       </c>
       <c r="P28" t="n">
-        <v>456.4113278254724</v>
+        <v>105.3942632089656</v>
       </c>
       <c r="Q28" t="n">
-        <v>242.8612166181265</v>
+        <v>72.96952483597261</v>
       </c>
       <c r="R28" t="n">
-        <v>17.9785597018076</v>
+        <v>17.97855970180758</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,28 +36828,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>74.4825858486024</v>
+        <v>74.48258584860235</v>
       </c>
       <c r="J29" t="n">
-        <v>164.8826172863562</v>
+        <v>164.8826172863561</v>
       </c>
       <c r="K29" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029949</v>
       </c>
       <c r="L29" t="n">
-        <v>306.569624028827</v>
+        <v>306.5696240288268</v>
       </c>
       <c r="M29" t="n">
-        <v>341.1177763747081</v>
+        <v>341.1177763747079</v>
       </c>
       <c r="N29" t="n">
-        <v>346.6374186241064</v>
+        <v>346.6374186241062</v>
       </c>
       <c r="O29" t="n">
-        <v>327.3198849268065</v>
+        <v>327.3198849268063</v>
       </c>
       <c r="P29" t="n">
-        <v>279.3599489718508</v>
+        <v>279.3599489718504</v>
       </c>
       <c r="Q29" t="n">
         <v>209.78768744732</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>98.20295729674433</v>
+        <v>74.44943596477022</v>
       </c>
       <c r="K30" t="n">
-        <v>167.8444955570418</v>
+        <v>167.8444955570416</v>
       </c>
       <c r="L30" t="n">
-        <v>201.934116241737</v>
+        <v>225.6876375737118</v>
       </c>
       <c r="M30" t="n">
-        <v>263.3668280503653</v>
+        <v>263.3668280503651</v>
       </c>
       <c r="N30" t="n">
-        <v>270.3373643164032</v>
+        <v>270.3373643164031</v>
       </c>
       <c r="O30" t="n">
         <v>247.3058736584414</v>
       </c>
       <c r="P30" t="n">
-        <v>198.4847664818558</v>
+        <v>198.4847664818556</v>
       </c>
       <c r="Q30" t="n">
         <v>132.6818099978852</v>
@@ -36992,28 +36992,28 @@
         <v>149.0636069472079</v>
       </c>
       <c r="K31" t="n">
-        <v>101.2431361854014</v>
+        <v>101.2431361854013</v>
       </c>
       <c r="L31" t="n">
-        <v>551.9905815335544</v>
+        <v>551.9905815335543</v>
       </c>
       <c r="M31" t="n">
-        <v>136.5990138689261</v>
+        <v>136.599013868926</v>
       </c>
       <c r="N31" t="n">
-        <v>216.078775382442</v>
+        <v>385.9704671645949</v>
       </c>
       <c r="O31" t="n">
-        <v>547.0795595787297</v>
+        <v>547.0795595787295</v>
       </c>
       <c r="P31" t="n">
-        <v>456.4113278254724</v>
+        <v>456.4113278254722</v>
       </c>
       <c r="Q31" t="n">
-        <v>242.8612166181265</v>
+        <v>72.96952483597261</v>
       </c>
       <c r="R31" t="n">
-        <v>17.9785597018076</v>
+        <v>17.97855970180758</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,25 +37065,25 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>74.4825858486024</v>
+        <v>74.48258584860235</v>
       </c>
       <c r="J32" t="n">
-        <v>164.8826172863562</v>
+        <v>164.8826172863561</v>
       </c>
       <c r="K32" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029949</v>
       </c>
       <c r="L32" t="n">
-        <v>306.569624028827</v>
+        <v>306.5696240288268</v>
       </c>
       <c r="M32" t="n">
-        <v>341.1177763747081</v>
+        <v>341.1177763747079</v>
       </c>
       <c r="N32" t="n">
-        <v>346.6374186241064</v>
+        <v>346.6374186241062</v>
       </c>
       <c r="O32" t="n">
-        <v>327.3198849268065</v>
+        <v>327.3198849268063</v>
       </c>
       <c r="P32" t="n">
         <v>279.3599489718508</v>
@@ -37092,7 +37092,7 @@
         <v>209.78768744732</v>
       </c>
       <c r="R32" t="n">
-        <v>122.0319322300957</v>
+        <v>122.0319322300952</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>35.78725290281059</v>
+        <v>35.78725290281056</v>
       </c>
       <c r="J33" t="n">
-        <v>98.20295729674433</v>
+        <v>38.66218306195964</v>
       </c>
       <c r="K33" t="n">
-        <v>167.8444955570417</v>
+        <v>167.8444955570416</v>
       </c>
       <c r="L33" t="n">
-        <v>166.1468633389264</v>
+        <v>225.6876375737118</v>
       </c>
       <c r="M33" t="n">
-        <v>263.3668280503653</v>
+        <v>263.3668280503651</v>
       </c>
       <c r="N33" t="n">
-        <v>270.3373643164032</v>
+        <v>270.3373643164031</v>
       </c>
       <c r="O33" t="n">
         <v>247.3058736584414</v>
       </c>
       <c r="P33" t="n">
-        <v>198.4847664818558</v>
+        <v>198.4847664818556</v>
       </c>
       <c r="Q33" t="n">
         <v>132.6818099978852</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>61.60937950812726</v>
+        <v>61.60937950812723</v>
       </c>
       <c r="K34" t="n">
         <v>101.2431361854013</v>
       </c>
       <c r="L34" t="n">
-        <v>551.9905815335544</v>
+        <v>445.3382177086984</v>
       </c>
       <c r="M34" t="n">
-        <v>600.7241322334849</v>
+        <v>136.599013868926</v>
       </c>
       <c r="N34" t="n">
         <v>580.0770584285319</v>
       </c>
       <c r="O34" t="n">
-        <v>327.3191420058224</v>
+        <v>547.0795595787295</v>
       </c>
       <c r="P34" t="n">
-        <v>105.3942632089656</v>
+        <v>456.4113278254722</v>
       </c>
       <c r="Q34" t="n">
         <v>72.96952483597261</v>
       </c>
       <c r="R34" t="n">
-        <v>17.9785597018076</v>
+        <v>17.97855970180758</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,28 +37302,28 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>74.4825858486024</v>
+        <v>74.48258584860235</v>
       </c>
       <c r="J35" t="n">
-        <v>164.8826172863564</v>
+        <v>164.8826172863561</v>
       </c>
       <c r="K35" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029949</v>
       </c>
       <c r="L35" t="n">
-        <v>306.5696240288269</v>
+        <v>306.5696240288268</v>
       </c>
       <c r="M35" t="n">
-        <v>341.1177763747082</v>
+        <v>341.1177763747079</v>
       </c>
       <c r="N35" t="n">
         <v>346.6374186241062</v>
       </c>
       <c r="O35" t="n">
-        <v>327.3198849268065</v>
+        <v>327.3198849268063</v>
       </c>
       <c r="P35" t="n">
-        <v>279.3599489718508</v>
+        <v>279.3599489718504</v>
       </c>
       <c r="Q35" t="n">
         <v>209.78768744732</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>35.78725290281059</v>
+        <v>35.78725290281058</v>
       </c>
       <c r="J36" t="n">
-        <v>98.20295729674433</v>
+        <v>98.20295729674427</v>
       </c>
       <c r="K36" t="n">
-        <v>167.8444955570417</v>
+        <v>167.8444955570416</v>
       </c>
       <c r="L36" t="n">
-        <v>225.6876375737119</v>
+        <v>225.6876375737118</v>
       </c>
       <c r="M36" t="n">
-        <v>263.3668280503653</v>
+        <v>263.3668280503651</v>
       </c>
       <c r="N36" t="n">
         <v>270.3373643164032</v>
@@ -37402,10 +37402,10 @@
         <v>247.3058736584414</v>
       </c>
       <c r="P36" t="n">
-        <v>198.4847664818558</v>
+        <v>138.9439922470708</v>
       </c>
       <c r="Q36" t="n">
-        <v>73.14103576309981</v>
+        <v>132.6818099978852</v>
       </c>
       <c r="R36" t="n">
         <v>64.53558625378173</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>61.60937950812726</v>
+        <v>61.60937950812722</v>
       </c>
       <c r="K37" t="n">
         <v>101.2431361854013</v>
       </c>
       <c r="L37" t="n">
-        <v>551.9905815335544</v>
+        <v>551.9905815335543</v>
       </c>
       <c r="M37" t="n">
-        <v>600.7241322334849</v>
+        <v>600.7241322334846</v>
       </c>
       <c r="N37" t="n">
-        <v>433.2079087904124</v>
+        <v>133.3509946329314</v>
       </c>
       <c r="O37" t="n">
-        <v>123.1712270274352</v>
+        <v>423.0281411849151</v>
       </c>
       <c r="P37" t="n">
-        <v>456.4113278254724</v>
+        <v>456.4113278254722</v>
       </c>
       <c r="Q37" t="n">
         <v>72.96952483597261</v>
       </c>
       <c r="R37" t="n">
-        <v>17.9785597018076</v>
+        <v>17.97855970180758</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,28 +37539,28 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>74.4825858486024</v>
+        <v>74.48258584860235</v>
       </c>
       <c r="J38" t="n">
-        <v>164.8826172863562</v>
+        <v>164.8826172863561</v>
       </c>
       <c r="K38" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029949</v>
       </c>
       <c r="L38" t="n">
-        <v>306.569624028827</v>
+        <v>306.5696240288268</v>
       </c>
       <c r="M38" t="n">
         <v>341.1177763747079</v>
       </c>
       <c r="N38" t="n">
-        <v>346.6374186241064</v>
+        <v>346.6374186241062</v>
       </c>
       <c r="O38" t="n">
-        <v>327.3198849268065</v>
+        <v>327.3198849268063</v>
       </c>
       <c r="P38" t="n">
-        <v>279.3599489718508</v>
+        <v>279.3599489718504</v>
       </c>
       <c r="Q38" t="n">
         <v>209.78768744732</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>35.78725290281059</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>98.20295729674434</v>
+        <v>98.20295729674429</v>
       </c>
       <c r="K39" t="n">
-        <v>167.8444955570417</v>
+        <v>144.0909742250676</v>
       </c>
       <c r="L39" t="n">
-        <v>225.6876375737119</v>
+        <v>225.6876375737118</v>
       </c>
       <c r="M39" t="n">
-        <v>263.3668280503653</v>
+        <v>263.3668280503651</v>
       </c>
       <c r="N39" t="n">
-        <v>270.3373643164032</v>
+        <v>270.3373643164031</v>
       </c>
       <c r="O39" t="n">
         <v>247.3058736584414</v>
       </c>
       <c r="P39" t="n">
-        <v>198.4847664818558</v>
+        <v>198.4847664818556</v>
       </c>
       <c r="Q39" t="n">
         <v>132.6818099978852</v>
       </c>
       <c r="R39" t="n">
-        <v>4.994812018996299</v>
+        <v>64.53558625378173</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>149.0636069472079</v>
+        <v>61.60937950812722</v>
       </c>
       <c r="K40" t="n">
-        <v>216.4627151814549</v>
+        <v>101.2431361854013</v>
       </c>
       <c r="L40" t="n">
-        <v>129.5563575255129</v>
+        <v>332.2301639606459</v>
       </c>
       <c r="M40" t="n">
-        <v>600.7241322334847</v>
+        <v>600.7241322334846</v>
       </c>
       <c r="N40" t="n">
         <v>580.0770584285319</v>
@@ -37724,7 +37724,7 @@
         <v>72.96952483597261</v>
       </c>
       <c r="R40" t="n">
-        <v>17.9785597018076</v>
+        <v>17.97855970180758</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,25 +37776,25 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>74.4825858486024</v>
+        <v>74.48258584860235</v>
       </c>
       <c r="J41" t="n">
-        <v>164.8826172863562</v>
+        <v>164.8826172863561</v>
       </c>
       <c r="K41" t="n">
-        <v>247.1163019029951</v>
+        <v>247.1163019029949</v>
       </c>
       <c r="L41" t="n">
-        <v>306.569624028827</v>
+        <v>306.5696240288268</v>
       </c>
       <c r="M41" t="n">
-        <v>341.1177763747081</v>
+        <v>341.1177763747079</v>
       </c>
       <c r="N41" t="n">
-        <v>346.6374186241064</v>
+        <v>346.6374186241062</v>
       </c>
       <c r="O41" t="n">
-        <v>327.3198849268065</v>
+        <v>327.3198849268063</v>
       </c>
       <c r="P41" t="n">
         <v>279.3599489718508</v>
@@ -37803,7 +37803,7 @@
         <v>209.78768744732</v>
       </c>
       <c r="R41" t="n">
-        <v>122.0319322300957</v>
+        <v>122.0319322300952</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>35.78725290281059</v>
+        <v>35.78725290281056</v>
       </c>
       <c r="J42" t="n">
-        <v>38.6621830619589</v>
+        <v>98.20295729674427</v>
       </c>
       <c r="K42" t="n">
-        <v>167.8444955570417</v>
+        <v>108.303721322257</v>
       </c>
       <c r="L42" t="n">
-        <v>225.6876375737119</v>
+        <v>225.6876375737118</v>
       </c>
       <c r="M42" t="n">
-        <v>263.3668280503653</v>
+        <v>263.3668280503651</v>
       </c>
       <c r="N42" t="n">
-        <v>270.3373643164032</v>
+        <v>270.3373643164031</v>
       </c>
       <c r="O42" t="n">
         <v>247.3058736584414</v>
       </c>
       <c r="P42" t="n">
-        <v>198.4847664818558</v>
+        <v>198.4847664818556</v>
       </c>
       <c r="Q42" t="n">
         <v>132.6818099978852</v>
@@ -37940,28 +37940,28 @@
         <v>149.0636069472079</v>
       </c>
       <c r="K43" t="n">
-        <v>378.7769286814979</v>
+        <v>101.2431361854013</v>
       </c>
       <c r="L43" t="n">
-        <v>551.9905815335545</v>
+        <v>129.5563575255128</v>
       </c>
       <c r="M43" t="n">
-        <v>136.599013868926</v>
+        <v>546.0520194473836</v>
       </c>
       <c r="N43" t="n">
-        <v>133.3509946329314</v>
+        <v>580.0770584285319</v>
       </c>
       <c r="O43" t="n">
-        <v>352.2735478321438</v>
+        <v>547.0795595787295</v>
       </c>
       <c r="P43" t="n">
-        <v>456.4113278254724</v>
+        <v>105.3942632089656</v>
       </c>
       <c r="Q43" t="n">
         <v>242.8612166181265</v>
       </c>
       <c r="R43" t="n">
-        <v>17.9785597018076</v>
+        <v>17.97855970180758</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,22 +38013,22 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>74.4825858486024</v>
+        <v>74.48258584860235</v>
       </c>
       <c r="J44" t="n">
         <v>164.8826172863564</v>
       </c>
       <c r="K44" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029949</v>
       </c>
       <c r="L44" t="n">
-        <v>306.5696240288269</v>
+        <v>306.5696240288268</v>
       </c>
       <c r="M44" t="n">
-        <v>341.1177763747082</v>
+        <v>341.1177763747078</v>
       </c>
       <c r="N44" t="n">
-        <v>346.6374186241062</v>
+        <v>346.637418624106</v>
       </c>
       <c r="O44" t="n">
         <v>327.3198849268065</v>
@@ -38040,7 +38040,7 @@
         <v>209.78768744732</v>
       </c>
       <c r="R44" t="n">
-        <v>122.0319322300957</v>
+        <v>122.0319322300952</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>35.78725290281059</v>
+        <v>35.78725290281056</v>
       </c>
       <c r="J45" t="n">
-        <v>98.20295729674433</v>
+        <v>98.20295729674427</v>
       </c>
       <c r="K45" t="n">
-        <v>167.8444955570417</v>
+        <v>108.303721322257</v>
       </c>
       <c r="L45" t="n">
-        <v>225.6876375737119</v>
+        <v>225.6876375737118</v>
       </c>
       <c r="M45" t="n">
-        <v>263.3668280503653</v>
+        <v>263.3668280503651</v>
       </c>
       <c r="N45" t="n">
-        <v>270.3373643164032</v>
+        <v>270.3373643164031</v>
       </c>
       <c r="O45" t="n">
         <v>247.3058736584414</v>
       </c>
       <c r="P45" t="n">
-        <v>198.4847664818558</v>
+        <v>198.4847664818556</v>
       </c>
       <c r="Q45" t="n">
         <v>132.6818099978852</v>
       </c>
       <c r="R45" t="n">
-        <v>4.994812018996299</v>
+        <v>64.53558625378173</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>149.0636069472079</v>
+        <v>61.60937950812723</v>
       </c>
       <c r="K46" t="n">
-        <v>378.7769286814979</v>
+        <v>101.2431361854013</v>
       </c>
       <c r="L46" t="n">
-        <v>551.9905815335545</v>
+        <v>551.9905815335543</v>
       </c>
       <c r="M46" t="n">
-        <v>136.599013868926</v>
+        <v>600.7241322334846</v>
       </c>
       <c r="N46" t="n">
-        <v>133.3509946329314</v>
+        <v>580.0770584285319</v>
       </c>
       <c r="O46" t="n">
-        <v>352.2735478321438</v>
+        <v>123.1712270274352</v>
       </c>
       <c r="P46" t="n">
-        <v>456.4113278254724</v>
+        <v>309.542178187352</v>
       </c>
       <c r="Q46" t="n">
-        <v>242.8612166181265</v>
+        <v>72.96952483597261</v>
       </c>
       <c r="R46" t="n">
-        <v>17.9785597018076</v>
+        <v>17.97855970180758</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
